--- a/PythonResources/Data/Consumption/Sympheny/futu_1380_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_1380_coo.xlsx
@@ -1031,7 +1031,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>6.372565971756158</v>
+        <v>6.372565971756157</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1591,7 +1591,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>0.9287128144139372</v>
+        <v>0.928712814413937</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2559,7 +2559,7 @@
         <v>277</v>
       </c>
       <c r="B277">
-        <v>21.10190607542125</v>
+        <v>21.10190607542124</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2575,7 +2575,7 @@
         <v>279</v>
       </c>
       <c r="B279">
-        <v>26.94729586283338</v>
+        <v>26.94729586283337</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3119,7 +3119,7 @@
         <v>347</v>
       </c>
       <c r="B347">
-        <v>8.182660627840226</v>
+        <v>8.182660627840225</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3167,7 +3167,7 @@
         <v>353</v>
       </c>
       <c r="B353">
-        <v>4.429299835704376</v>
+        <v>4.429299835704375</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>374</v>
       </c>
       <c r="B374">
-        <v>40.10413400145716</v>
+        <v>40.10413400145715</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3703,7 +3703,7 @@
         <v>420</v>
       </c>
       <c r="B420">
-        <v>0.893201396659342</v>
+        <v>0.8932013966593418</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>421</v>
       </c>
       <c r="B421">
-        <v>3.440214387326202</v>
+        <v>3.440214387326201</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -4119,7 +4119,7 @@
         <v>472</v>
       </c>
       <c r="B472">
-        <v>0.6163430478567423</v>
+        <v>0.6163430478567422</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4303,7 +4303,7 @@
         <v>495</v>
       </c>
       <c r="B495">
-        <v>19.67218832041575</v>
+        <v>19.67218832041574</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4311,7 +4311,7 @@
         <v>496</v>
       </c>
       <c r="B496">
-        <v>7.578553295847594</v>
+        <v>7.578553295847593</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -5279,7 +5279,7 @@
         <v>617</v>
       </c>
       <c r="B617">
-        <v>9.581547309578561</v>
+        <v>9.581547309578555</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5439,7 +5439,7 @@
         <v>637</v>
       </c>
       <c r="B637">
-        <v>17.22651050278682</v>
+        <v>17.22651050278681</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5623,7 +5623,7 @@
         <v>660</v>
       </c>
       <c r="B660">
-        <v>6.265595042644767</v>
+        <v>6.265595042644766</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5663,7 +5663,7 @@
         <v>665</v>
       </c>
       <c r="B665">
-        <v>0.9610092428744174</v>
+        <v>0.9610092428744172</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -6223,7 +6223,7 @@
         <v>735</v>
       </c>
       <c r="B735">
-        <v>42.77371809262335</v>
+        <v>42.77371809262334</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -7399,7 +7399,7 @@
         <v>882</v>
       </c>
       <c r="B882">
-        <v>8.302585296860448</v>
+        <v>8.302585296860446</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -8335,7 +8335,7 @@
         <v>999</v>
       </c>
       <c r="B999">
-        <v>3.331397110671245</v>
+        <v>3.331397110671244</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -8695,7 +8695,7 @@
         <v>1044</v>
       </c>
       <c r="B1044">
-        <v>5.221558774517591</v>
+        <v>5.22155877451759</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
@@ -8703,7 +8703,7 @@
         <v>1045</v>
       </c>
       <c r="B1045">
-        <v>24.20432678358639</v>
+        <v>24.20432678358638</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
@@ -8767,7 +8767,7 @@
         <v>1053</v>
       </c>
       <c r="B1053">
-        <v>7.17895093463285</v>
+        <v>7.178950934632849</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
@@ -8943,7 +8943,7 @@
         <v>1075</v>
       </c>
       <c r="B1075">
-        <v>76.57272176832032</v>
+        <v>76.57272176832031</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
@@ -8951,7 +8951,7 @@
         <v>1076</v>
       </c>
       <c r="B1076">
-        <v>65.07730334786771</v>
+        <v>65.0773033478677</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
@@ -9095,7 +9095,7 @@
         <v>1094</v>
       </c>
       <c r="B1094">
-        <v>1.850605865758225</v>
+        <v>1.850605865758224</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
@@ -9127,7 +9127,7 @@
         <v>1098</v>
       </c>
       <c r="B1098">
-        <v>7.97715921553089</v>
+        <v>7.977159215530889</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
@@ -9503,7 +9503,7 @@
         <v>1145</v>
       </c>
       <c r="B1145">
-        <v>0.1055170036885921</v>
+        <v>0.105517003688592</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
@@ -9703,7 +9703,7 @@
         <v>1170</v>
       </c>
       <c r="B1170">
-        <v>28.90937715956722</v>
+        <v>28.90937715956721</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
@@ -9727,7 +9727,7 @@
         <v>1173</v>
       </c>
       <c r="B1173">
-        <v>33.91828358843214</v>
+        <v>33.91828358843213</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
@@ -10831,7 +10831,7 @@
         <v>1311</v>
       </c>
       <c r="B1311">
-        <v>55.20168855809636</v>
+        <v>55.20168855809635</v>
       </c>
     </row>
     <row r="1312" spans="1:2">
@@ -10855,7 +10855,7 @@
         <v>1314</v>
       </c>
       <c r="B1314">
-        <v>20.4787784330195</v>
+        <v>20.47877843301949</v>
       </c>
     </row>
     <row r="1315" spans="1:2">
@@ -10863,7 +10863,7 @@
         <v>1315</v>
       </c>
       <c r="B1315">
-        <v>47.98627958625404</v>
+        <v>47.98627958625403</v>
       </c>
     </row>
     <row r="1316" spans="1:2">
@@ -10879,7 +10879,7 @@
         <v>1317</v>
       </c>
       <c r="B1317">
-        <v>9.825323799537069</v>
+        <v>9.825323799537063</v>
       </c>
     </row>
     <row r="1318" spans="1:2">
@@ -11039,7 +11039,7 @@
         <v>1337</v>
       </c>
       <c r="B1337">
-        <v>53.53294206395866</v>
+        <v>53.53294206395865</v>
       </c>
     </row>
     <row r="1338" spans="1:2">
@@ -11383,7 +11383,7 @@
         <v>1380</v>
       </c>
       <c r="B1380">
-        <v>7.156970606733249</v>
+        <v>7.156970606733248</v>
       </c>
     </row>
     <row r="1381" spans="1:2">
@@ -11399,7 +11399,7 @@
         <v>1382</v>
       </c>
       <c r="B1382">
-        <v>21.54476572194241</v>
+        <v>21.5447657219424</v>
       </c>
     </row>
     <row r="1383" spans="1:2">
@@ -11431,7 +11431,7 @@
         <v>1386</v>
       </c>
       <c r="B1386">
-        <v>30.0488666649864</v>
+        <v>30.04886666498639</v>
       </c>
     </row>
     <row r="1387" spans="1:2">
@@ -11439,7 +11439,7 @@
         <v>1387</v>
       </c>
       <c r="B1387">
-        <v>74.4022376559944</v>
+        <v>74.40223765599438</v>
       </c>
     </row>
     <row r="1388" spans="1:2">
@@ -11455,7 +11455,7 @@
         <v>1389</v>
       </c>
       <c r="B1389">
-        <v>41.24271498665648</v>
+        <v>41.24271498665647</v>
       </c>
     </row>
     <row r="1390" spans="1:2">
@@ -11615,7 +11615,7 @@
         <v>1409</v>
       </c>
       <c r="B1409">
-        <v>46.4224525239571</v>
+        <v>46.42245252395709</v>
       </c>
     </row>
     <row r="1410" spans="1:2">
@@ -12711,7 +12711,7 @@
         <v>1546</v>
       </c>
       <c r="B1546">
-        <v>3.587717041084457</v>
+        <v>3.587717041084456</v>
       </c>
     </row>
     <row r="1547" spans="1:2">
@@ -12783,7 +12783,7 @@
         <v>1555</v>
       </c>
       <c r="B1555">
-        <v>23.54875617720482</v>
+        <v>23.54875617720481</v>
       </c>
     </row>
     <row r="1556" spans="1:2">
@@ -13151,7 +13151,7 @@
         <v>1601</v>
       </c>
       <c r="B1601">
-        <v>5.090438791820505</v>
+        <v>5.090438791820504</v>
       </c>
     </row>
     <row r="1602" spans="1:2">
@@ -13183,7 +13183,7 @@
         <v>1605</v>
       </c>
       <c r="B1605">
-        <v>0.898113267267306</v>
+        <v>0.8981132672673059</v>
       </c>
     </row>
     <row r="1606" spans="1:2">
@@ -13295,7 +13295,7 @@
         <v>1619</v>
       </c>
       <c r="B1619">
-        <v>8.3107619788391</v>
+        <v>8.310761978839098</v>
       </c>
     </row>
     <row r="1620" spans="1:2">
@@ -13335,7 +13335,7 @@
         <v>1624</v>
       </c>
       <c r="B1624">
-        <v>55.84058342237809</v>
+        <v>55.84058342237808</v>
       </c>
     </row>
     <row r="1625" spans="1:2">
@@ -13343,7 +13343,7 @@
         <v>1625</v>
       </c>
       <c r="B1625">
-        <v>50.50112216900704</v>
+        <v>50.50112216900703</v>
       </c>
     </row>
     <row r="1626" spans="1:2">
@@ -13351,7 +13351,7 @@
         <v>1626</v>
       </c>
       <c r="B1626">
-        <v>25.78069728633803</v>
+        <v>25.78069728633802</v>
       </c>
     </row>
     <row r="1627" spans="1:2">
@@ -13359,7 +13359,7 @@
         <v>1627</v>
       </c>
       <c r="B1627">
-        <v>55.3060218478598</v>
+        <v>55.30602184785979</v>
       </c>
     </row>
     <row r="1628" spans="1:2">
@@ -13367,7 +13367,7 @@
         <v>1628</v>
       </c>
       <c r="B1628">
-        <v>33.33214151110945</v>
+        <v>33.33214151110944</v>
       </c>
     </row>
     <row r="1629" spans="1:2">
@@ -13383,7 +13383,7 @@
         <v>1630</v>
       </c>
       <c r="B1630">
-        <v>9.3406722229028</v>
+        <v>9.340672222902798</v>
       </c>
     </row>
     <row r="1631" spans="1:2">
@@ -13511,7 +13511,7 @@
         <v>1646</v>
       </c>
       <c r="B1646">
-        <v>38.62617675348799</v>
+        <v>38.62617675348798</v>
       </c>
     </row>
     <row r="1647" spans="1:2">
@@ -13543,7 +13543,7 @@
         <v>1650</v>
       </c>
       <c r="B1650">
-        <v>32.24953709429444</v>
+        <v>32.24953709429443</v>
       </c>
     </row>
     <row r="1651" spans="1:2">
@@ -13591,7 +13591,7 @@
         <v>1656</v>
       </c>
       <c r="B1656">
-        <v>0.621902605460148</v>
+        <v>0.6219026054601479</v>
       </c>
     </row>
     <row r="1657" spans="1:2">
@@ -13663,7 +13663,7 @@
         <v>1665</v>
       </c>
       <c r="B1665">
-        <v>5.570342617628458</v>
+        <v>5.570342617628457</v>
       </c>
     </row>
     <row r="1666" spans="1:2">
@@ -13703,7 +13703,7 @@
         <v>1670</v>
       </c>
       <c r="B1670">
-        <v>16.39099427866719</v>
+        <v>16.39099427866718</v>
       </c>
     </row>
     <row r="1671" spans="1:2">
@@ -13727,7 +13727,7 @@
         <v>1673</v>
       </c>
       <c r="B1673">
-        <v>49.52519561026476</v>
+        <v>49.52519561026475</v>
       </c>
     </row>
     <row r="1674" spans="1:2">
@@ -13871,7 +13871,7 @@
         <v>1691</v>
       </c>
       <c r="B1691">
-        <v>34.79984127272547</v>
+        <v>34.79984127272546</v>
       </c>
     </row>
     <row r="1692" spans="1:2">
@@ -13887,7 +13887,7 @@
         <v>1693</v>
       </c>
       <c r="B1693">
-        <v>61.88370823957503</v>
+        <v>61.88370823957502</v>
       </c>
     </row>
     <row r="1694" spans="1:2">
@@ -13927,7 +13927,7 @@
         <v>1698</v>
       </c>
       <c r="B1698">
-        <v>175.9868141478286</v>
+        <v>175.9868141478285</v>
       </c>
     </row>
     <row r="1699" spans="1:2">
@@ -14239,7 +14239,7 @@
         <v>1737</v>
       </c>
       <c r="B1737">
-        <v>7.568647494740841</v>
+        <v>7.56864749474084</v>
       </c>
     </row>
     <row r="1738" spans="1:2">
@@ -14319,7 +14319,7 @@
         <v>1747</v>
       </c>
       <c r="B1747">
-        <v>162.5527308066312</v>
+        <v>162.5527308066311</v>
       </c>
     </row>
     <row r="1748" spans="1:2">
@@ -14335,7 +14335,7 @@
         <v>1749</v>
       </c>
       <c r="B1749">
-        <v>73.73462182992385</v>
+        <v>73.73462182992384</v>
       </c>
     </row>
     <row r="1750" spans="1:2">
@@ -14351,7 +14351,7 @@
         <v>1751</v>
       </c>
       <c r="B1751">
-        <v>6.457908258214342</v>
+        <v>6.457908258214341</v>
       </c>
     </row>
     <row r="1752" spans="1:2">
@@ -14463,7 +14463,7 @@
         <v>1765</v>
       </c>
       <c r="B1765">
-        <v>62.01617634904996</v>
+        <v>62.01617634904995</v>
       </c>
     </row>
     <row r="1766" spans="1:2">
@@ -14679,7 +14679,7 @@
         <v>1792</v>
       </c>
       <c r="B1792">
-        <v>41.0416682541348</v>
+        <v>41.04166825413479</v>
       </c>
     </row>
     <row r="1793" spans="1:2">
@@ -14735,7 +14735,7 @@
         <v>1799</v>
       </c>
       <c r="B1799">
-        <v>1.826867111626656</v>
+        <v>1.826867111626655</v>
       </c>
     </row>
     <row r="1800" spans="1:2">
@@ -14855,7 +14855,7 @@
         <v>1814</v>
       </c>
       <c r="B1814">
-        <v>4.795140413265334</v>
+        <v>4.795140413265333</v>
       </c>
     </row>
     <row r="1815" spans="1:2">
@@ -14879,7 +14879,7 @@
         <v>1817</v>
       </c>
       <c r="B1817">
-        <v>35.08763703269091</v>
+        <v>35.0876370326909</v>
       </c>
     </row>
     <row r="1818" spans="1:2">
@@ -14895,7 +14895,7 @@
         <v>1819</v>
       </c>
       <c r="B1819">
-        <v>43.50522340512207</v>
+        <v>43.50522340512206</v>
       </c>
     </row>
     <row r="1820" spans="1:2">
@@ -15455,7 +15455,7 @@
         <v>1889</v>
       </c>
       <c r="B1889">
-        <v>41.60202008005529</v>
+        <v>41.60202008005528</v>
       </c>
     </row>
     <row r="1890" spans="1:2">
@@ -15583,7 +15583,7 @@
         <v>1905</v>
       </c>
       <c r="B1905">
-        <v>1.79766551333444</v>
+        <v>1.797665513334439</v>
       </c>
     </row>
     <row r="1906" spans="1:2">
@@ -15639,7 +15639,7 @@
         <v>1912</v>
       </c>
       <c r="B1912">
-        <v>45.57137422768455</v>
+        <v>45.57137422768454</v>
       </c>
     </row>
     <row r="1913" spans="1:2">
@@ -16055,7 +16055,7 @@
         <v>1964</v>
       </c>
       <c r="B1964">
-        <v>67.97431056503511</v>
+        <v>67.9743105650351</v>
       </c>
     </row>
     <row r="1965" spans="1:2">
@@ -16063,7 +16063,7 @@
         <v>1965</v>
       </c>
       <c r="B1965">
-        <v>45.44154375755758</v>
+        <v>45.44154375755757</v>
       </c>
     </row>
     <row r="1966" spans="1:2">
@@ -16079,7 +16079,7 @@
         <v>1967</v>
       </c>
       <c r="B1967">
-        <v>3.370463480124802</v>
+        <v>3.370463480124801</v>
       </c>
     </row>
     <row r="1968" spans="1:2">
@@ -16279,7 +16279,7 @@
         <v>1992</v>
       </c>
       <c r="B1992">
-        <v>8.984708139344729</v>
+        <v>8.984708139344727</v>
       </c>
     </row>
     <row r="1993" spans="1:2">
@@ -16647,7 +16647,7 @@
         <v>2038</v>
       </c>
       <c r="B2038">
-        <v>47.58154848186272</v>
+        <v>47.58154848186271</v>
       </c>
     </row>
     <row r="2039" spans="1:2">
@@ -16991,7 +16991,7 @@
         <v>2081</v>
       </c>
       <c r="B2081">
-        <v>71.36016027468963</v>
+        <v>71.36016027468962</v>
       </c>
     </row>
     <row r="2082" spans="1:2">
@@ -17327,7 +17327,7 @@
         <v>2123</v>
       </c>
       <c r="B2123">
-        <v>8.300006271720228</v>
+        <v>8.300006271720227</v>
       </c>
     </row>
     <row r="2124" spans="1:2">
@@ -17359,7 +17359,7 @@
         <v>2127</v>
       </c>
       <c r="B2127">
-        <v>106.3771671870632</v>
+        <v>106.3771671870631</v>
       </c>
     </row>
     <row r="2128" spans="1:2">
@@ -17407,7 +17407,7 @@
         <v>2133</v>
       </c>
       <c r="B2133">
-        <v>64.51958916129517</v>
+        <v>64.51958916129516</v>
       </c>
     </row>
     <row r="2134" spans="1:2">
@@ -17711,7 +17711,7 @@
         <v>2171</v>
       </c>
       <c r="B2171">
-        <v>57.3106277523034</v>
+        <v>57.31062775230339</v>
       </c>
     </row>
     <row r="2172" spans="1:2">
@@ -17815,7 +17815,7 @@
         <v>2184</v>
       </c>
       <c r="B2184">
-        <v>5.637514499689639</v>
+        <v>5.637514499689638</v>
       </c>
     </row>
     <row r="2185" spans="1:2">
@@ -18271,7 +18271,7 @@
         <v>2241</v>
       </c>
       <c r="B2241">
-        <v>2.056376903423129</v>
+        <v>2.056376903423128</v>
       </c>
     </row>
     <row r="2242" spans="1:2">
@@ -18343,7 +18343,7 @@
         <v>2250</v>
       </c>
       <c r="B2250">
-        <v>118.9680851500319</v>
+        <v>118.9680851500318</v>
       </c>
     </row>
     <row r="2251" spans="1:2">
@@ -18527,7 +18527,7 @@
         <v>2273</v>
       </c>
       <c r="B2273">
-        <v>29.49760004126441</v>
+        <v>29.4976000412644</v>
       </c>
     </row>
     <row r="2274" spans="1:2">
@@ -19047,7 +19047,7 @@
         <v>2338</v>
       </c>
       <c r="B2338">
-        <v>50.39385816885699</v>
+        <v>50.39385816885698</v>
       </c>
     </row>
     <row r="2339" spans="1:2">
@@ -19143,7 +19143,7 @@
         <v>2350</v>
       </c>
       <c r="B2350">
-        <v>60.38875287136351</v>
+        <v>60.3887528713635</v>
       </c>
     </row>
     <row r="2351" spans="1:2">
@@ -19159,7 +19159,7 @@
         <v>2352</v>
       </c>
       <c r="B2352">
-        <v>5.054742739311553</v>
+        <v>5.054742739311552</v>
       </c>
     </row>
     <row r="2353" spans="1:2">
@@ -19263,7 +19263,7 @@
         <v>2365</v>
       </c>
       <c r="B2365">
-        <v>106.9070396249629</v>
+        <v>106.9070396249628</v>
       </c>
     </row>
     <row r="2366" spans="1:2">
@@ -19327,7 +19327,7 @@
         <v>2373</v>
       </c>
       <c r="B2373">
-        <v>184.0401132192037</v>
+        <v>184.0401132192036</v>
       </c>
     </row>
     <row r="2374" spans="1:2">
@@ -19367,7 +19367,7 @@
         <v>2378</v>
       </c>
       <c r="B2378">
-        <v>22.92445625064843</v>
+        <v>22.92445625064842</v>
       </c>
     </row>
     <row r="2379" spans="1:2">
@@ -19383,7 +19383,7 @@
         <v>2380</v>
       </c>
       <c r="B2380">
-        <v>5.94509255476472</v>
+        <v>5.945092554764719</v>
       </c>
     </row>
     <row r="2381" spans="1:2">
@@ -19431,7 +19431,7 @@
         <v>2386</v>
       </c>
       <c r="B2386">
-        <v>65.00579401443434</v>
+        <v>65.00579401443433</v>
       </c>
     </row>
     <row r="2387" spans="1:2">
@@ -19663,7 +19663,7 @@
         <v>2415</v>
       </c>
       <c r="B2415">
-        <v>81.62966254042183</v>
+        <v>81.62966254042182</v>
       </c>
     </row>
     <row r="2416" spans="1:2">
@@ -19703,7 +19703,7 @@
         <v>2420</v>
       </c>
       <c r="B2420">
-        <v>126.4179509528033</v>
+        <v>126.4179509528032</v>
       </c>
     </row>
     <row r="2421" spans="1:2">
@@ -19711,7 +19711,7 @@
         <v>2421</v>
       </c>
       <c r="B2421">
-        <v>92.53835274147444</v>
+        <v>92.5383527414744</v>
       </c>
     </row>
     <row r="2422" spans="1:2">
@@ -19743,7 +19743,7 @@
         <v>2425</v>
       </c>
       <c r="B2425">
-        <v>0.6027504130836291</v>
+        <v>0.602750413083629</v>
       </c>
     </row>
     <row r="2426" spans="1:2">
@@ -19919,7 +19919,7 @@
         <v>2447</v>
       </c>
       <c r="B2447">
-        <v>48.9926855330171</v>
+        <v>48.99268553301709</v>
       </c>
     </row>
     <row r="2448" spans="1:2">
@@ -20007,7 +20007,7 @@
         <v>2458</v>
       </c>
       <c r="B2458">
-        <v>35.89797845458953</v>
+        <v>35.89797845458952</v>
       </c>
     </row>
     <row r="2459" spans="1:2">
@@ -20023,7 +20023,7 @@
         <v>2460</v>
       </c>
       <c r="B2460">
-        <v>70.87336927947314</v>
+        <v>70.87336927947312</v>
       </c>
     </row>
     <row r="2461" spans="1:2">
@@ -20063,7 +20063,7 @@
         <v>2465</v>
       </c>
       <c r="B2465">
-        <v>183.8739419402827</v>
+        <v>183.8739419402826</v>
       </c>
     </row>
     <row r="2466" spans="1:2">
@@ -20111,7 +20111,7 @@
         <v>2471</v>
       </c>
       <c r="B2471">
-        <v>47.28349523554413</v>
+        <v>47.28349523554412</v>
       </c>
     </row>
     <row r="2472" spans="1:2">
@@ -20215,7 +20215,7 @@
         <v>2484</v>
       </c>
       <c r="B2484">
-        <v>81.78205948052573</v>
+        <v>81.78205948052572</v>
       </c>
     </row>
     <row r="2485" spans="1:2">
@@ -20551,7 +20551,7 @@
         <v>2526</v>
       </c>
       <c r="B2526">
-        <v>3.50126108467936</v>
+        <v>3.501261084679359</v>
       </c>
     </row>
     <row r="2527" spans="1:2">
@@ -20591,7 +20591,7 @@
         <v>2531</v>
       </c>
       <c r="B2531">
-        <v>93.12449481879712</v>
+        <v>93.1244948187971</v>
       </c>
     </row>
     <row r="2532" spans="1:2">
@@ -20615,7 +20615,7 @@
         <v>2534</v>
       </c>
       <c r="B2534">
-        <v>192.9260271114157</v>
+        <v>192.9260271114156</v>
       </c>
     </row>
     <row r="2535" spans="1:2">
@@ -20983,7 +20983,7 @@
         <v>2580</v>
       </c>
       <c r="B2580">
-        <v>152.8374258750076</v>
+        <v>152.8374258750075</v>
       </c>
     </row>
     <row r="2581" spans="1:2">
@@ -21063,7 +21063,7 @@
         <v>2590</v>
       </c>
       <c r="B2590">
-        <v>149.3384507444298</v>
+        <v>149.3384507444297</v>
       </c>
     </row>
     <row r="2591" spans="1:2">
@@ -21279,7 +21279,7 @@
         <v>2617</v>
       </c>
       <c r="B2617">
-        <v>7.068463153057523</v>
+        <v>7.068463153057522</v>
       </c>
     </row>
     <row r="2618" spans="1:2">
@@ -21375,7 +21375,7 @@
         <v>2629</v>
       </c>
       <c r="B2629">
-        <v>59.3539190338503</v>
+        <v>59.35391903385029</v>
       </c>
     </row>
     <row r="2630" spans="1:2">
@@ -21463,7 +21463,7 @@
         <v>2640</v>
       </c>
       <c r="B2640">
-        <v>4.711029025169528</v>
+        <v>4.711029025169527</v>
       </c>
     </row>
     <row r="2641" spans="1:2">
@@ -21543,7 +21543,7 @@
         <v>2650</v>
       </c>
       <c r="B2650">
-        <v>3.159540253600232</v>
+        <v>3.159540253600231</v>
       </c>
     </row>
     <row r="2651" spans="1:2">
@@ -21559,7 +21559,7 @@
         <v>2652</v>
       </c>
       <c r="B2652">
-        <v>8.586541826219426</v>
+        <v>8.586541826219424</v>
       </c>
     </row>
     <row r="2653" spans="1:2">
@@ -21575,7 +21575,7 @@
         <v>2654</v>
       </c>
       <c r="B2654">
-        <v>40.61876674534648</v>
+        <v>40.61876674534647</v>
       </c>
     </row>
     <row r="2655" spans="1:2">
@@ -21591,7 +21591,7 @@
         <v>2656</v>
       </c>
       <c r="B2656">
-        <v>100.6247688402183</v>
+        <v>100.6247688402182</v>
       </c>
     </row>
     <row r="2657" spans="1:2">
@@ -21823,7 +21823,7 @@
         <v>2685</v>
       </c>
       <c r="B2685">
-        <v>135.7466951844326</v>
+        <v>135.7466951844325</v>
       </c>
     </row>
     <row r="2686" spans="1:2">
@@ -21831,7 +21831,7 @@
         <v>2686</v>
       </c>
       <c r="B2686">
-        <v>93.64440284138234</v>
+        <v>93.64440284138232</v>
       </c>
     </row>
     <row r="2687" spans="1:2">
@@ -22087,7 +22087,7 @@
         <v>2718</v>
       </c>
       <c r="B2718">
-        <v>4.785058769535383</v>
+        <v>4.785058769535382</v>
       </c>
     </row>
     <row r="2719" spans="1:2">
@@ -22103,7 +22103,7 @@
         <v>2720</v>
       </c>
       <c r="B2720">
-        <v>4.336572159071927</v>
+        <v>4.336572159071926</v>
       </c>
     </row>
     <row r="2721" spans="1:2">
@@ -22127,7 +22127,7 @@
         <v>2723</v>
       </c>
       <c r="B2723">
-        <v>37.55646746237408</v>
+        <v>37.55646746237407</v>
       </c>
     </row>
     <row r="2724" spans="1:2">
@@ -22247,7 +22247,7 @@
         <v>2738</v>
       </c>
       <c r="B2738">
-        <v>68.1472224778453</v>
+        <v>68.14722247784529</v>
       </c>
     </row>
     <row r="2739" spans="1:2">
@@ -22311,7 +22311,7 @@
         <v>2746</v>
       </c>
       <c r="B2746">
-        <v>106.2095305529489</v>
+        <v>106.2095305529488</v>
       </c>
     </row>
     <row r="2747" spans="1:2">
@@ -22319,7 +22319,7 @@
         <v>2747</v>
       </c>
       <c r="B2747">
-        <v>151.2604106159709</v>
+        <v>151.2604106159708</v>
       </c>
     </row>
     <row r="2748" spans="1:2">
@@ -22455,7 +22455,7 @@
         <v>2764</v>
       </c>
       <c r="B2764">
-        <v>46.66921833850995</v>
+        <v>46.66921833850994</v>
       </c>
     </row>
     <row r="2765" spans="1:2">
@@ -22759,7 +22759,7 @@
         <v>2802</v>
       </c>
       <c r="B2802">
-        <v>446.7985212807674</v>
+        <v>446.7985212807673</v>
       </c>
     </row>
     <row r="2803" spans="1:2">
@@ -22775,7 +22775,7 @@
         <v>2804</v>
       </c>
       <c r="B2804">
-        <v>302.1210723352077</v>
+        <v>302.1210723352076</v>
       </c>
     </row>
     <row r="2805" spans="1:2">
@@ -22879,7 +22879,7 @@
         <v>2817</v>
       </c>
       <c r="B2817">
-        <v>6.526223117326302</v>
+        <v>6.526223117326301</v>
       </c>
     </row>
     <row r="2818" spans="1:2">
@@ -22911,7 +22911,7 @@
         <v>2821</v>
       </c>
       <c r="B2821">
-        <v>52.66633100263706</v>
+        <v>52.66633100263705</v>
       </c>
     </row>
     <row r="2822" spans="1:2">
@@ -23127,7 +23127,7 @@
         <v>2848</v>
       </c>
       <c r="B2848">
-        <v>145.5127014057446</v>
+        <v>145.5127014057445</v>
       </c>
     </row>
     <row r="2849" spans="1:2">
@@ -23167,7 +23167,7 @@
         <v>2853</v>
       </c>
       <c r="B2853">
-        <v>82.33039539386111</v>
+        <v>82.3303953938611</v>
       </c>
     </row>
     <row r="2854" spans="1:2">
@@ -23191,7 +23191,7 @@
         <v>2856</v>
       </c>
       <c r="B2856">
-        <v>1.231273493307137</v>
+        <v>1.231273493307136</v>
       </c>
     </row>
     <row r="2857" spans="1:2">
@@ -23375,7 +23375,7 @@
         <v>2879</v>
       </c>
       <c r="B2879">
-        <v>33.50036428730106</v>
+        <v>33.50036428730105</v>
       </c>
     </row>
     <row r="2880" spans="1:2">
@@ -23479,7 +23479,7 @@
         <v>2892</v>
       </c>
       <c r="B2892">
-        <v>56.99000803600789</v>
+        <v>56.99000803600788</v>
       </c>
     </row>
     <row r="2893" spans="1:2">
@@ -23511,7 +23511,7 @@
         <v>2896</v>
       </c>
       <c r="B2896">
-        <v>204.2417929851689</v>
+        <v>204.2417929851688</v>
       </c>
     </row>
     <row r="2897" spans="1:2">
@@ -23655,7 +23655,7 @@
         <v>2914</v>
       </c>
       <c r="B2914">
-        <v>6.328781158580154</v>
+        <v>6.328781158580153</v>
       </c>
     </row>
     <row r="2915" spans="1:2">
@@ -23743,7 +23743,7 @@
         <v>2925</v>
       </c>
       <c r="B2925">
-        <v>157.0353754327927</v>
+        <v>157.0353754327926</v>
       </c>
     </row>
     <row r="2926" spans="1:2">
@@ -23775,7 +23775,7 @@
         <v>2929</v>
       </c>
       <c r="B2929">
-        <v>11.05311560890491</v>
+        <v>11.0531156089049</v>
       </c>
     </row>
     <row r="2930" spans="1:2">
@@ -23927,7 +23927,7 @@
         <v>2948</v>
       </c>
       <c r="B2948">
-        <v>283.7950472166751</v>
+        <v>283.795047216675</v>
       </c>
     </row>
     <row r="2949" spans="1:2">
@@ -24215,7 +24215,7 @@
         <v>2984</v>
       </c>
       <c r="B2984">
-        <v>60.90573018356212</v>
+        <v>60.90573018356211</v>
       </c>
     </row>
     <row r="2985" spans="1:2">
@@ -24407,7 +24407,7 @@
         <v>3008</v>
       </c>
       <c r="B3008">
-        <v>91.90444008484994</v>
+        <v>91.90444008484992</v>
       </c>
     </row>
     <row r="3009" spans="1:2">
@@ -24791,7 +24791,7 @@
         <v>3056</v>
       </c>
       <c r="B3056">
-        <v>82.46227736125871</v>
+        <v>82.4622773612587</v>
       </c>
     </row>
     <row r="3057" spans="1:2">
@@ -24831,7 +24831,7 @@
         <v>3061</v>
       </c>
       <c r="B3061">
-        <v>290.7003870296137</v>
+        <v>290.7003870296136</v>
       </c>
     </row>
     <row r="3062" spans="1:2">
@@ -24863,7 +24863,7 @@
         <v>3065</v>
       </c>
       <c r="B3065">
-        <v>234.1291775078529</v>
+        <v>234.1291775078528</v>
       </c>
     </row>
     <row r="3066" spans="1:2">
@@ -24935,7 +24935,7 @@
         <v>3074</v>
       </c>
       <c r="B3074">
-        <v>66.08869150228801</v>
+        <v>66.088691502288</v>
       </c>
     </row>
     <row r="3075" spans="1:2">
@@ -24959,7 +24959,7 @@
         <v>3077</v>
       </c>
       <c r="B3077">
-        <v>19.74894362544115</v>
+        <v>19.74894362544114</v>
       </c>
     </row>
     <row r="3078" spans="1:2">
@@ -25047,7 +25047,7 @@
         <v>3088</v>
       </c>
       <c r="B3088">
-        <v>88.90075500960981</v>
+        <v>88.9007550096098</v>
       </c>
     </row>
     <row r="3089" spans="1:2">
@@ -25103,7 +25103,7 @@
         <v>3095</v>
       </c>
       <c r="B3095">
-        <v>80.14672308479543</v>
+        <v>80.14672308479541</v>
       </c>
     </row>
     <row r="3096" spans="1:2">
@@ -25127,7 +25127,7 @@
         <v>3098</v>
       </c>
       <c r="B3098">
-        <v>10.06400085342287</v>
+        <v>10.06400085342286</v>
       </c>
     </row>
     <row r="3099" spans="1:2">
@@ -25183,7 +25183,7 @@
         <v>3105</v>
       </c>
       <c r="B3105">
-        <v>50.97970717514102</v>
+        <v>50.97970717514101</v>
       </c>
     </row>
     <row r="3106" spans="1:2">
@@ -25191,7 +25191,7 @@
         <v>3106</v>
       </c>
       <c r="B3106">
-        <v>71.85955332456857</v>
+        <v>71.85955332456855</v>
       </c>
     </row>
     <row r="3107" spans="1:2">
@@ -25351,7 +25351,7 @@
         <v>3126</v>
       </c>
       <c r="B3126">
-        <v>3.674788446670743</v>
+        <v>3.674788446670742</v>
       </c>
     </row>
     <row r="3127" spans="1:2">
@@ -25367,7 +25367,7 @@
         <v>3128</v>
       </c>
       <c r="B3128">
-        <v>18.62006329162152</v>
+        <v>18.62006329162151</v>
       </c>
     </row>
     <row r="3129" spans="1:2">
@@ -25423,7 +25423,7 @@
         <v>3135</v>
       </c>
       <c r="B3135">
-        <v>211.0448510056147</v>
+        <v>211.0448510056146</v>
       </c>
     </row>
     <row r="3136" spans="1:2">
@@ -25495,7 +25495,7 @@
         <v>3144</v>
       </c>
       <c r="B3144">
-        <v>33.81629486697799</v>
+        <v>33.81629486697798</v>
       </c>
     </row>
     <row r="3145" spans="1:2">
@@ -25559,7 +25559,7 @@
         <v>3152</v>
       </c>
       <c r="B3152">
-        <v>7.538666327485785</v>
+        <v>7.538666327485784</v>
       </c>
     </row>
     <row r="3153" spans="1:2">
@@ -25575,7 +25575,7 @@
         <v>3154</v>
       </c>
       <c r="B3154">
-        <v>31.67834163994348</v>
+        <v>31.67834163994347</v>
       </c>
     </row>
     <row r="3155" spans="1:2">
@@ -25719,7 +25719,7 @@
         <v>3172</v>
       </c>
       <c r="B3172">
-        <v>0.7007357841496633</v>
+        <v>0.7007357841496632</v>
       </c>
     </row>
     <row r="3173" spans="1:2">
@@ -25751,7 +25751,7 @@
         <v>3176</v>
       </c>
       <c r="B3176">
-        <v>0.6996572827273895</v>
+        <v>0.6996572827273894</v>
       </c>
     </row>
     <row r="3177" spans="1:2">
@@ -25791,7 +25791,7 @@
         <v>3181</v>
       </c>
       <c r="B3181">
-        <v>43.82613619245624</v>
+        <v>43.82613619245623</v>
       </c>
     </row>
     <row r="3182" spans="1:2">
@@ -25959,7 +25959,7 @@
         <v>3202</v>
       </c>
       <c r="B3202">
-        <v>59.58104908881284</v>
+        <v>59.58104908881283</v>
       </c>
     </row>
     <row r="3203" spans="1:2">
@@ -25975,7 +25975,7 @@
         <v>3204</v>
       </c>
       <c r="B3204">
-        <v>48.50120540118202</v>
+        <v>48.50120540118201</v>
       </c>
     </row>
     <row r="3205" spans="1:2">
@@ -26143,7 +26143,7 @@
         <v>3225</v>
       </c>
       <c r="B3225">
-        <v>54.01943998813649</v>
+        <v>54.01943998813648</v>
       </c>
     </row>
     <row r="3226" spans="1:2">
@@ -26159,7 +26159,7 @@
         <v>3227</v>
       </c>
       <c r="B3227">
-        <v>89.5074120596388</v>
+        <v>89.50741205963878</v>
       </c>
     </row>
     <row r="3228" spans="1:2">
@@ -26239,7 +26239,7 @@
         <v>3237</v>
       </c>
       <c r="B3237">
-        <v>233.1608707961158</v>
+        <v>233.1608707961157</v>
       </c>
     </row>
     <row r="3238" spans="1:2">
@@ -26319,7 +26319,7 @@
         <v>3247</v>
       </c>
       <c r="B3247">
-        <v>4.150003135860114</v>
+        <v>4.150003135860113</v>
       </c>
     </row>
     <row r="3248" spans="1:2">
@@ -26479,7 +26479,7 @@
         <v>3267</v>
       </c>
       <c r="B3267">
-        <v>38.86092665545573</v>
+        <v>38.86092665545572</v>
       </c>
     </row>
     <row r="3268" spans="1:2">
@@ -26519,7 +26519,7 @@
         <v>3272</v>
       </c>
       <c r="B3272">
-        <v>47.88429086479989</v>
+        <v>47.88429086479988</v>
       </c>
     </row>
     <row r="3273" spans="1:2">
@@ -26527,7 +26527,7 @@
         <v>3273</v>
       </c>
       <c r="B3273">
-        <v>81.34684898811363</v>
+        <v>81.34684898811362</v>
       </c>
     </row>
     <row r="3274" spans="1:2">
@@ -26607,7 +26607,7 @@
         <v>3283</v>
       </c>
       <c r="B3283">
-        <v>381.3733426100087</v>
+        <v>381.3733426100086</v>
       </c>
     </row>
     <row r="3284" spans="1:2">
@@ -26695,7 +26695,7 @@
         <v>3294</v>
       </c>
       <c r="B3294">
-        <v>50.85749655201924</v>
+        <v>50.85749655201923</v>
       </c>
     </row>
     <row r="3295" spans="1:2">
@@ -26751,7 +26751,7 @@
         <v>3301</v>
       </c>
       <c r="B3301">
-        <v>141.9726963297542</v>
+        <v>141.9726963297541</v>
       </c>
     </row>
     <row r="3302" spans="1:2">
@@ -26783,7 +26783,7 @@
         <v>3305</v>
       </c>
       <c r="B3305">
-        <v>302.0390124443825</v>
+        <v>302.0390124443824</v>
       </c>
     </row>
     <row r="3306" spans="1:2">
@@ -26815,7 +26815,7 @@
         <v>3309</v>
       </c>
       <c r="B3309">
-        <v>323.0492752060144</v>
+        <v>323.0492752060143</v>
       </c>
     </row>
     <row r="3310" spans="1:2">
@@ -26919,7 +26919,7 @@
         <v>3322</v>
       </c>
       <c r="B3322">
-        <v>188.2559401103472</v>
+        <v>188.2559401103471</v>
       </c>
     </row>
     <row r="3323" spans="1:2">
@@ -27279,7 +27279,7 @@
         <v>3367</v>
       </c>
       <c r="B3367">
-        <v>7.805595429498538</v>
+        <v>7.805595429498537</v>
       </c>
     </row>
     <row r="3368" spans="1:2">
@@ -27295,7 +27295,7 @@
         <v>3369</v>
       </c>
       <c r="B3369">
-        <v>74.67186301156283</v>
+        <v>74.67186301156282</v>
       </c>
     </row>
     <row r="3370" spans="1:2">
@@ -27327,7 +27327,7 @@
         <v>3373</v>
       </c>
       <c r="B3373">
-        <v>174.2248710633966</v>
+        <v>174.2248710633965</v>
       </c>
     </row>
     <row r="3374" spans="1:2">
@@ -27351,7 +27351,7 @@
         <v>3376</v>
       </c>
       <c r="B3376">
-        <v>268.6831321791415</v>
+        <v>268.6831321791414</v>
       </c>
     </row>
     <row r="3377" spans="1:2">
@@ -27559,7 +27559,7 @@
         <v>3402</v>
       </c>
       <c r="B3402">
-        <v>570.0817844040489</v>
+        <v>570.0817844040488</v>
       </c>
     </row>
     <row r="3403" spans="1:2">
@@ -27647,7 +27647,7 @@
         <v>3413</v>
       </c>
       <c r="B3413">
-        <v>74.41220207130888</v>
+        <v>74.41220207130887</v>
       </c>
     </row>
     <row r="3414" spans="1:2">
@@ -27663,7 +27663,7 @@
         <v>3415</v>
       </c>
       <c r="B3415">
-        <v>31.3521535739134</v>
+        <v>31.35215357391339</v>
       </c>
     </row>
     <row r="3416" spans="1:2">
@@ -27727,7 +27727,7 @@
         <v>3423</v>
       </c>
       <c r="B3423">
-        <v>282.7555242425433</v>
+        <v>282.7555242425432</v>
       </c>
     </row>
     <row r="3424" spans="1:2">
@@ -27759,7 +27759,7 @@
         <v>3427</v>
       </c>
       <c r="B3427">
-        <v>381.5081552877929</v>
+        <v>381.5081552877928</v>
       </c>
     </row>
     <row r="3428" spans="1:2">
@@ -27887,7 +27887,7 @@
         <v>3443</v>
       </c>
       <c r="B3443">
-        <v>69.88982287372566</v>
+        <v>69.88982287372565</v>
       </c>
     </row>
     <row r="3444" spans="1:2">
@@ -28055,7 +28055,7 @@
         <v>3464</v>
       </c>
       <c r="B3464">
-        <v>12.21980210671186</v>
+        <v>12.21980210671185</v>
       </c>
     </row>
     <row r="3465" spans="1:2">
@@ -28087,7 +28087,7 @@
         <v>3468</v>
       </c>
       <c r="B3468">
-        <v>35.26611729523567</v>
+        <v>35.26611729523566</v>
       </c>
     </row>
     <row r="3469" spans="1:2">
@@ -28103,7 +28103,7 @@
         <v>3470</v>
       </c>
       <c r="B3470">
-        <v>79.31088448253327</v>
+        <v>79.31088448253325</v>
       </c>
     </row>
     <row r="3471" spans="1:2">
@@ -28215,7 +28215,7 @@
         <v>3484</v>
       </c>
       <c r="B3484">
-        <v>3.235562881028985</v>
+        <v>3.235562881028984</v>
       </c>
     </row>
     <row r="3485" spans="1:2">
@@ -28271,7 +28271,7 @@
         <v>3491</v>
       </c>
       <c r="B3491">
-        <v>87.82782193707062</v>
+        <v>87.82782193707061</v>
       </c>
     </row>
     <row r="3492" spans="1:2">
@@ -28327,7 +28327,7 @@
         <v>3498</v>
       </c>
       <c r="B3498">
-        <v>535.7895421702849</v>
+        <v>535.7895421702848</v>
       </c>
     </row>
     <row r="3499" spans="1:2">
@@ -28367,7 +28367,7 @@
         <v>3503</v>
       </c>
       <c r="B3503">
-        <v>280.1427959328774</v>
+        <v>280.1427959328773</v>
       </c>
     </row>
     <row r="3504" spans="1:2">
@@ -28399,7 +28399,7 @@
         <v>3507</v>
       </c>
       <c r="B3507">
-        <v>188.8385653352059</v>
+        <v>188.8385653352058</v>
       </c>
     </row>
     <row r="3508" spans="1:2">
@@ -28407,7 +28407,7 @@
         <v>3508</v>
       </c>
       <c r="B3508">
-        <v>176.9246414715449</v>
+        <v>176.9246414715448</v>
       </c>
     </row>
     <row r="3509" spans="1:2">
@@ -28511,7 +28511,7 @@
         <v>3521</v>
       </c>
       <c r="B3521">
-        <v>453.6153536400303</v>
+        <v>453.6153536400302</v>
       </c>
     </row>
     <row r="3522" spans="1:2">
@@ -28535,7 +28535,7 @@
         <v>3524</v>
       </c>
       <c r="B3524">
-        <v>467.6886249165481</v>
+        <v>467.688624916548</v>
       </c>
     </row>
     <row r="3525" spans="1:2">
@@ -28543,7 +28543,7 @@
         <v>3525</v>
       </c>
       <c r="B3525">
-        <v>409.8920853821442</v>
+        <v>409.8920853821441</v>
       </c>
     </row>
     <row r="3526" spans="1:2">
@@ -28687,7 +28687,7 @@
         <v>3543</v>
       </c>
       <c r="B3543">
-        <v>382.1177430482085</v>
+        <v>382.1177430482084</v>
       </c>
     </row>
     <row r="3544" spans="1:2">
@@ -28719,7 +28719,7 @@
         <v>3547</v>
       </c>
       <c r="B3547">
-        <v>523.9113729733406</v>
+        <v>523.9113729733405</v>
       </c>
     </row>
     <row r="3548" spans="1:2">
@@ -28783,7 +28783,7 @@
         <v>3555</v>
       </c>
       <c r="B3555">
-        <v>240.9788338234459</v>
+        <v>240.9788338234458</v>
       </c>
     </row>
     <row r="3556" spans="1:2">
@@ -28807,7 +28807,7 @@
         <v>3558</v>
       </c>
       <c r="B3558">
-        <v>239.2209937335551</v>
+        <v>239.220993733555</v>
       </c>
     </row>
     <row r="3559" spans="1:2">
@@ -28847,7 +28847,7 @@
         <v>3563</v>
       </c>
       <c r="B3563">
-        <v>302.7980664345154</v>
+        <v>302.7980664345153</v>
       </c>
     </row>
     <row r="3564" spans="1:2">
@@ -29015,7 +29015,7 @@
         <v>3584</v>
       </c>
       <c r="B3584">
-        <v>94.6478780777588</v>
+        <v>94.64787807775878</v>
       </c>
     </row>
     <row r="3585" spans="1:2">
@@ -29031,7 +29031,7 @@
         <v>3586</v>
       </c>
       <c r="B3586">
-        <v>205.9468802881006</v>
+        <v>205.9468802881005</v>
       </c>
     </row>
     <row r="3587" spans="1:2">
@@ -29079,7 +29079,7 @@
         <v>3592</v>
       </c>
       <c r="B3592">
-        <v>356.1369954708802</v>
+        <v>356.1369954708801</v>
       </c>
     </row>
     <row r="3593" spans="1:2">
@@ -29095,7 +29095,7 @@
         <v>3594</v>
       </c>
       <c r="B3594">
-        <v>527.0677480597233</v>
+        <v>527.0677480597232</v>
       </c>
     </row>
     <row r="3595" spans="1:2">
@@ -29111,7 +29111,7 @@
         <v>3596</v>
       </c>
       <c r="B3596">
-        <v>386.5606999943145</v>
+        <v>386.5606999943144</v>
       </c>
     </row>
     <row r="3597" spans="1:2">
@@ -29119,7 +29119,7 @@
         <v>3597</v>
       </c>
       <c r="B3597">
-        <v>338.0076210192894</v>
+        <v>338.0076210192893</v>
       </c>
     </row>
     <row r="3598" spans="1:2">
@@ -29143,7 +29143,7 @@
         <v>3600</v>
       </c>
       <c r="B3600">
-        <v>198.9703242127673</v>
+        <v>198.9703242127672</v>
       </c>
     </row>
     <row r="3601" spans="1:2">
@@ -29223,7 +29223,7 @@
         <v>3610</v>
       </c>
       <c r="B3610">
-        <v>227.7581061983939</v>
+        <v>227.7581061983938</v>
       </c>
     </row>
     <row r="3611" spans="1:2">
@@ -29263,7 +29263,7 @@
         <v>3615</v>
       </c>
       <c r="B3615">
-        <v>341.4013836469878</v>
+        <v>341.4013836469877</v>
       </c>
     </row>
     <row r="3616" spans="1:2">
@@ -29487,7 +29487,7 @@
         <v>3643</v>
       </c>
       <c r="B3643">
-        <v>531.0857519997703</v>
+        <v>531.0857519997702</v>
       </c>
     </row>
     <row r="3644" spans="1:2">
@@ -29495,7 +29495,7 @@
         <v>3644</v>
       </c>
       <c r="B3644">
-        <v>443.7476517683028</v>
+        <v>443.7476517683027</v>
       </c>
     </row>
     <row r="3645" spans="1:2">
@@ -29527,7 +29527,7 @@
         <v>3648</v>
       </c>
       <c r="B3648">
-        <v>229.4464884521219</v>
+        <v>229.4464884521218</v>
       </c>
     </row>
     <row r="3649" spans="1:2">
@@ -29863,7 +29863,7 @@
         <v>3690</v>
       </c>
       <c r="B3690">
-        <v>600.6842622610666</v>
+        <v>600.6842622610665</v>
       </c>
     </row>
     <row r="3691" spans="1:2">
@@ -29951,7 +29951,7 @@
         <v>3701</v>
       </c>
       <c r="B3701">
-        <v>187.8113513446979</v>
+        <v>187.8113513446978</v>
       </c>
     </row>
     <row r="3702" spans="1:2">
@@ -30039,7 +30039,7 @@
         <v>3712</v>
       </c>
       <c r="B3712">
-        <v>492.769644405186</v>
+        <v>492.7696444051859</v>
       </c>
     </row>
     <row r="3713" spans="1:2">
@@ -30055,7 +30055,7 @@
         <v>3714</v>
       </c>
       <c r="B3714">
-        <v>688.3388792142883</v>
+        <v>688.3388792142882</v>
       </c>
     </row>
     <row r="3715" spans="1:2">
@@ -30247,7 +30247,7 @@
         <v>3738</v>
       </c>
       <c r="B3738">
-        <v>587.4081442097076</v>
+        <v>587.4081442097075</v>
       </c>
     </row>
     <row r="3739" spans="1:2">
@@ -30351,7 +30351,7 @@
         <v>3751</v>
       </c>
       <c r="B3751">
-        <v>69.06981010755122</v>
+        <v>69.06981010755121</v>
       </c>
     </row>
     <row r="3752" spans="1:2">
@@ -30503,7 +30503,7 @@
         <v>3770</v>
       </c>
       <c r="B3770">
-        <v>231.6187309906798</v>
+        <v>231.6187309906797</v>
       </c>
     </row>
     <row r="3771" spans="1:2">
@@ -30511,7 +30511,7 @@
         <v>3771</v>
       </c>
       <c r="B3771">
-        <v>206.5693631742173</v>
+        <v>206.5693631742172</v>
       </c>
     </row>
     <row r="3772" spans="1:2">
@@ -30599,7 +30599,7 @@
         <v>3782</v>
       </c>
       <c r="B3782">
-        <v>403.5734737886056</v>
+        <v>403.5734737886055</v>
       </c>
     </row>
     <row r="3783" spans="1:2">
@@ -30655,7 +30655,7 @@
         <v>3789</v>
       </c>
       <c r="B3789">
-        <v>398.0227083163597</v>
+        <v>398.0227083163596</v>
       </c>
     </row>
     <row r="3790" spans="1:2">
@@ -30783,7 +30783,7 @@
         <v>3805</v>
       </c>
       <c r="B3805">
-        <v>227.8096867011983</v>
+        <v>227.8096867011982</v>
       </c>
     </row>
     <row r="3806" spans="1:2">
@@ -30791,7 +30791,7 @@
         <v>3806</v>
       </c>
       <c r="B3806">
-        <v>272.9569871359399</v>
+        <v>272.9569871359398</v>
       </c>
     </row>
     <row r="3807" spans="1:2">
@@ -30823,7 +30823,7 @@
         <v>3810</v>
       </c>
       <c r="B3810">
-        <v>557.9515741138558</v>
+        <v>557.9515741138557</v>
       </c>
     </row>
     <row r="3811" spans="1:2">
@@ -30839,7 +30839,7 @@
         <v>3812</v>
       </c>
       <c r="B3812">
-        <v>445.057679311119</v>
+        <v>445.0576793111189</v>
       </c>
     </row>
     <row r="3813" spans="1:2">
@@ -30927,7 +30927,7 @@
         <v>3823</v>
       </c>
       <c r="B3823">
-        <v>54.2741187207332</v>
+        <v>54.27411872073319</v>
       </c>
     </row>
     <row r="3824" spans="1:2">
@@ -31007,7 +31007,7 @@
         <v>3833</v>
       </c>
       <c r="B3833">
-        <v>414.252982437425</v>
+        <v>414.2529824374249</v>
       </c>
     </row>
     <row r="3834" spans="1:2">
@@ -31079,7 +31079,7 @@
         <v>3842</v>
       </c>
       <c r="B3842">
-        <v>173.5897861226175</v>
+        <v>173.5897861226174</v>
       </c>
     </row>
     <row r="3843" spans="1:2">
@@ -31127,7 +31127,7 @@
         <v>3848</v>
       </c>
       <c r="B3848">
-        <v>67.16367607209783</v>
+        <v>67.16367607209781</v>
       </c>
     </row>
     <row r="3849" spans="1:2">
@@ -31223,7 +31223,7 @@
         <v>3860</v>
       </c>
       <c r="B3860">
-        <v>418.0570445192493</v>
+        <v>418.0570445192492</v>
       </c>
     </row>
     <row r="3861" spans="1:2">
@@ -31239,7 +31239,7 @@
         <v>3862</v>
       </c>
       <c r="B3862">
-        <v>319.7668795730073</v>
+        <v>319.7668795730072</v>
       </c>
     </row>
     <row r="3863" spans="1:2">
@@ -31247,7 +31247,7 @@
         <v>3863</v>
       </c>
       <c r="B3863">
-        <v>276.7554808680296</v>
+        <v>276.7554808680295</v>
       </c>
     </row>
     <row r="3864" spans="1:2">
@@ -31319,7 +31319,7 @@
         <v>3872</v>
       </c>
       <c r="B3872">
-        <v>63.62161949883681</v>
+        <v>63.6216194988368</v>
       </c>
     </row>
     <row r="3873" spans="1:2">
@@ -31327,7 +31327,7 @@
         <v>3873</v>
       </c>
       <c r="B3873">
-        <v>84.02141528693707</v>
+        <v>84.02141528693706</v>
       </c>
     </row>
     <row r="3874" spans="1:2">
@@ -31343,7 +31343,7 @@
         <v>3875</v>
       </c>
       <c r="B3875">
-        <v>132.4727986115467</v>
+        <v>132.4727986115466</v>
       </c>
     </row>
     <row r="3876" spans="1:2">
@@ -31367,7 +31367,7 @@
         <v>3878</v>
       </c>
       <c r="B3878">
-        <v>216.7694076037868</v>
+        <v>216.7694076037867</v>
       </c>
     </row>
     <row r="3879" spans="1:2">
@@ -31415,7 +31415,7 @@
         <v>3884</v>
       </c>
       <c r="B3884">
-        <v>431.8548290194254</v>
+        <v>431.8548290194253</v>
       </c>
     </row>
     <row r="3885" spans="1:2">
@@ -31423,7 +31423,7 @@
         <v>3885</v>
       </c>
       <c r="B3885">
-        <v>383.3164035963334</v>
+        <v>383.3164035963333</v>
       </c>
     </row>
     <row r="3886" spans="1:2">
@@ -31471,7 +31471,7 @@
         <v>3891</v>
       </c>
       <c r="B3891">
-        <v>177.305340750766</v>
+        <v>177.3053407507659</v>
       </c>
     </row>
     <row r="3892" spans="1:2">
@@ -31511,7 +31511,7 @@
         <v>3896</v>
       </c>
       <c r="B3896">
-        <v>69.88513373710708</v>
+        <v>69.88513373710707</v>
       </c>
     </row>
     <row r="3897" spans="1:2">
@@ -31663,7 +31663,7 @@
         <v>3915</v>
       </c>
       <c r="B3915">
-        <v>86.23029170532763</v>
+        <v>86.23029170532762</v>
       </c>
     </row>
     <row r="3916" spans="1:2">
@@ -31879,7 +31879,7 @@
         <v>3942</v>
       </c>
       <c r="B3942">
-        <v>45.78795372525529</v>
+        <v>45.78795372525528</v>
       </c>
     </row>
     <row r="3943" spans="1:2">
@@ -31975,7 +31975,7 @@
         <v>3954</v>
       </c>
       <c r="B3954">
-        <v>479.3206144410169</v>
+        <v>479.3206144410168</v>
       </c>
     </row>
     <row r="3955" spans="1:2">
@@ -31983,7 +31983,7 @@
         <v>3955</v>
       </c>
       <c r="B3955">
-        <v>419.9766598224811</v>
+        <v>419.976659822481</v>
       </c>
     </row>
     <row r="3956" spans="1:2">
@@ -32055,7 +32055,7 @@
         <v>3964</v>
       </c>
       <c r="B3964">
-        <v>12.90632101477606</v>
+        <v>12.90632101477605</v>
       </c>
     </row>
     <row r="3965" spans="1:2">
@@ -32079,7 +32079,7 @@
         <v>3967</v>
       </c>
       <c r="B3967">
-        <v>11.23106834358008</v>
+        <v>11.23106834358007</v>
       </c>
     </row>
     <row r="3968" spans="1:2">
@@ -32183,7 +32183,7 @@
         <v>3980</v>
       </c>
       <c r="B3980">
-        <v>335.5223786114412</v>
+        <v>335.5223786114411</v>
       </c>
     </row>
     <row r="3981" spans="1:2">
@@ -32231,7 +32231,7 @@
         <v>3986</v>
       </c>
       <c r="B3986">
-        <v>67.77824604017067</v>
+        <v>67.77824604017066</v>
       </c>
     </row>
     <row r="3987" spans="1:2">
@@ -32239,7 +32239,7 @@
         <v>3987</v>
       </c>
       <c r="B3987">
-        <v>45.16371241290662</v>
+        <v>45.16371241290661</v>
       </c>
     </row>
     <row r="3988" spans="1:2">
@@ -32271,7 +32271,7 @@
         <v>3991</v>
       </c>
       <c r="B3991">
-        <v>9.68851823868995</v>
+        <v>9.688518238689948</v>
       </c>
     </row>
     <row r="3992" spans="1:2">
@@ -32287,7 +32287,7 @@
         <v>3993</v>
       </c>
       <c r="B3993">
-        <v>68.55781500300985</v>
+        <v>68.55781500300984</v>
       </c>
     </row>
     <row r="3994" spans="1:2">
@@ -32343,7 +32343,7 @@
         <v>4000</v>
       </c>
       <c r="B4000">
-        <v>283.7510865608759</v>
+        <v>283.7510865608758</v>
       </c>
     </row>
     <row r="4001" spans="1:2">
@@ -32447,7 +32447,7 @@
         <v>4013</v>
       </c>
       <c r="B4013">
-        <v>53.65984182369902</v>
+        <v>53.65984182369901</v>
       </c>
     </row>
     <row r="4014" spans="1:2">
@@ -32455,7 +32455,7 @@
         <v>4014</v>
       </c>
       <c r="B4014">
-        <v>68.37904166942643</v>
+        <v>68.37904166942641</v>
       </c>
     </row>
     <row r="4015" spans="1:2">
@@ -32751,7 +32751,7 @@
         <v>4051</v>
       </c>
       <c r="B4051">
-        <v>541.3256540905977</v>
+        <v>541.3256540905976</v>
       </c>
     </row>
     <row r="4052" spans="1:2">
@@ -32919,7 +32919,7 @@
         <v>4072</v>
       </c>
       <c r="B4072">
-        <v>378.255066758652</v>
+        <v>378.2550667586519</v>
       </c>
     </row>
     <row r="4073" spans="1:2">
@@ -33063,7 +33063,7 @@
         <v>4090</v>
       </c>
       <c r="B4090">
-        <v>248.8302069491833</v>
+        <v>248.8302069491832</v>
       </c>
     </row>
     <row r="4091" spans="1:2">
@@ -33079,7 +33079,7 @@
         <v>4092</v>
       </c>
       <c r="B4092">
-        <v>324.7315029679305</v>
+        <v>324.7315029679304</v>
       </c>
     </row>
     <row r="4093" spans="1:2">
@@ -33287,7 +33287,7 @@
         <v>4118</v>
       </c>
       <c r="B4118">
-        <v>279.9062876046777</v>
+        <v>279.9062876046776</v>
       </c>
     </row>
     <row r="4119" spans="1:2">
@@ -33663,7 +33663,7 @@
         <v>4165</v>
       </c>
       <c r="B4165">
-        <v>221.5532061678559</v>
+        <v>221.5532061678558</v>
       </c>
     </row>
     <row r="4166" spans="1:2">
@@ -33679,7 +33679,7 @@
         <v>4167</v>
       </c>
       <c r="B4167">
-        <v>241.193361823746</v>
+        <v>241.1933618237459</v>
       </c>
     </row>
     <row r="4168" spans="1:2">
@@ -33719,7 +33719,7 @@
         <v>4172</v>
       </c>
       <c r="B4172">
-        <v>343.9686859456612</v>
+        <v>343.9686859456611</v>
       </c>
     </row>
     <row r="4173" spans="1:2">
@@ -33775,7 +33775,7 @@
         <v>4179</v>
       </c>
       <c r="B4179">
-        <v>78.09874266662995</v>
+        <v>78.09874266662993</v>
       </c>
     </row>
     <row r="4180" spans="1:2">
@@ -33919,7 +33919,7 @@
         <v>4197</v>
       </c>
       <c r="B4197">
-        <v>299.3603431510178</v>
+        <v>299.3603431510177</v>
       </c>
     </row>
     <row r="4198" spans="1:2">
@@ -33975,7 +33975,7 @@
         <v>4204</v>
       </c>
       <c r="B4204">
-        <v>46.33570349651334</v>
+        <v>46.33570349651333</v>
       </c>
     </row>
     <row r="4205" spans="1:2">
@@ -33991,7 +33991,7 @@
         <v>4206</v>
       </c>
       <c r="B4206">
-        <v>61.95551064404706</v>
+        <v>61.95551064404705</v>
       </c>
     </row>
     <row r="4207" spans="1:2">
@@ -34119,7 +34119,7 @@
         <v>4222</v>
       </c>
       <c r="B4222">
-        <v>284.6426086604837</v>
+        <v>284.6426086604836</v>
       </c>
     </row>
     <row r="4223" spans="1:2">
@@ -34151,7 +34151,7 @@
         <v>4226</v>
       </c>
       <c r="B4226">
-        <v>112.1817321787898</v>
+        <v>112.1817321787897</v>
       </c>
     </row>
     <row r="4227" spans="1:2">
@@ -34287,7 +34287,7 @@
         <v>4243</v>
       </c>
       <c r="B4243">
-        <v>536.3844763787674</v>
+        <v>536.3844763787673</v>
       </c>
     </row>
     <row r="4244" spans="1:2">
@@ -34319,7 +34319,7 @@
         <v>4247</v>
       </c>
       <c r="B4247">
-        <v>326.941258599437</v>
+        <v>326.9412585994369</v>
       </c>
     </row>
     <row r="4248" spans="1:2">
@@ -34383,7 +34383,7 @@
         <v>4255</v>
       </c>
       <c r="B4255">
-        <v>55.49182888637109</v>
+        <v>55.49182888637108</v>
       </c>
     </row>
     <row r="4256" spans="1:2">
@@ -34423,7 +34423,7 @@
         <v>4260</v>
       </c>
       <c r="B4260">
-        <v>278.4702395152371</v>
+        <v>278.470239515237</v>
       </c>
     </row>
     <row r="4261" spans="1:2">
@@ -34455,7 +34455,7 @@
         <v>4264</v>
       </c>
       <c r="B4264">
-        <v>408.5908499704878</v>
+        <v>408.5908499704877</v>
       </c>
     </row>
     <row r="4265" spans="1:2">
@@ -34487,7 +34487,7 @@
         <v>4268</v>
       </c>
       <c r="B4268">
-        <v>544.3325629472631</v>
+        <v>544.332562947263</v>
       </c>
     </row>
     <row r="4269" spans="1:2">
@@ -34535,7 +34535,7 @@
         <v>4274</v>
       </c>
       <c r="B4274">
-        <v>318.6502789157076</v>
+        <v>318.6502789157075</v>
       </c>
     </row>
     <row r="4275" spans="1:2">
@@ -34583,7 +34583,7 @@
         <v>4280</v>
       </c>
       <c r="B4280">
-        <v>230.0689713382386</v>
+        <v>230.0689713382385</v>
       </c>
     </row>
     <row r="4281" spans="1:2">
@@ -34615,7 +34615,7 @@
         <v>4284</v>
       </c>
       <c r="B4284">
-        <v>470.2559272152215</v>
+        <v>470.2559272152214</v>
       </c>
     </row>
     <row r="4285" spans="1:2">
@@ -34639,7 +34639,7 @@
         <v>4287</v>
       </c>
       <c r="B4287">
-        <v>548.9015404399935</v>
+        <v>548.9015404399934</v>
       </c>
     </row>
     <row r="4288" spans="1:2">
@@ -34935,7 +34935,7 @@
         <v>4324</v>
       </c>
       <c r="B4324">
-        <v>232.7203850250078</v>
+        <v>232.7203850250077</v>
       </c>
     </row>
     <row r="4325" spans="1:2">
@@ -34959,7 +34959,7 @@
         <v>4327</v>
       </c>
       <c r="B4327">
-        <v>77.85901055700496</v>
+        <v>77.85901055700495</v>
       </c>
     </row>
     <row r="4328" spans="1:2">
@@ -34983,7 +34983,7 @@
         <v>4330</v>
       </c>
       <c r="B4330">
-        <v>350.7269040971918</v>
+        <v>350.7269040971917</v>
       </c>
     </row>
     <row r="4331" spans="1:2">
@@ -35199,7 +35199,7 @@
         <v>4357</v>
       </c>
       <c r="B4357">
-        <v>318.1374045980502</v>
+        <v>318.1374045980501</v>
       </c>
     </row>
     <row r="4358" spans="1:2">
@@ -35255,7 +35255,7 @@
         <v>4364</v>
       </c>
       <c r="B4364">
-        <v>503.8066997211723</v>
+        <v>503.8066997211722</v>
       </c>
     </row>
     <row r="4365" spans="1:2">
@@ -35391,7 +35391,7 @@
         <v>4381</v>
       </c>
       <c r="B4381">
-        <v>365.5885364677086</v>
+        <v>365.5885364677085</v>
       </c>
     </row>
     <row r="4382" spans="1:2">
@@ -35479,7 +35479,7 @@
         <v>4392</v>
       </c>
       <c r="B4392">
-        <v>379.9753937555941</v>
+        <v>379.975393755594</v>
       </c>
     </row>
     <row r="4393" spans="1:2">
@@ -35639,7 +35639,7 @@
         <v>4412</v>
       </c>
       <c r="B4412">
-        <v>553.7841039440915</v>
+        <v>553.7841039440914</v>
       </c>
     </row>
     <row r="4413" spans="1:2">
@@ -35647,7 +35647,7 @@
         <v>4413</v>
       </c>
       <c r="B4413">
-        <v>502.0277585164979</v>
+        <v>502.0277585164978</v>
       </c>
     </row>
     <row r="4414" spans="1:2">
@@ -35783,7 +35783,7 @@
         <v>4430</v>
       </c>
       <c r="B4430">
-        <v>309.3335505966634</v>
+        <v>309.3335505966633</v>
       </c>
     </row>
     <row r="4431" spans="1:2">
@@ -35815,7 +35815,7 @@
         <v>4434</v>
       </c>
       <c r="B4434">
-        <v>540.0302800997146</v>
+        <v>540.0302800997144</v>
       </c>
     </row>
     <row r="4435" spans="1:2">
@@ -35831,7 +35831,7 @@
         <v>4436</v>
       </c>
       <c r="B4436">
-        <v>457.2171967051782</v>
+        <v>457.2171967051781</v>
       </c>
     </row>
     <row r="4437" spans="1:2">
@@ -35839,7 +35839,7 @@
         <v>4437</v>
       </c>
       <c r="B4437">
-        <v>405.3817220971461</v>
+        <v>405.381722097146</v>
       </c>
     </row>
     <row r="4438" spans="1:2">
@@ -35847,7 +35847,7 @@
         <v>4438</v>
       </c>
       <c r="B4438">
-        <v>360.4158326353359</v>
+        <v>360.4158326353358</v>
       </c>
     </row>
     <row r="4439" spans="1:2">
@@ -35879,7 +35879,7 @@
         <v>4442</v>
       </c>
       <c r="B4442">
-        <v>222.4004745406259</v>
+        <v>222.4004745406258</v>
       </c>
     </row>
     <row r="4443" spans="1:2">
@@ -35983,7 +35983,7 @@
         <v>4455</v>
       </c>
       <c r="B4455">
-        <v>352.1482986346993</v>
+        <v>352.1482986346992</v>
       </c>
     </row>
     <row r="4456" spans="1:2">
@@ -36207,7 +36207,7 @@
         <v>4483</v>
       </c>
       <c r="B4483">
-        <v>564.5896331395353</v>
+        <v>564.5896331395352</v>
       </c>
     </row>
     <row r="4484" spans="1:2">
@@ -36215,7 +36215,7 @@
         <v>4484</v>
       </c>
       <c r="B4484">
-        <v>488.1098148904706</v>
+        <v>488.1098148904705</v>
       </c>
     </row>
     <row r="4485" spans="1:2">
@@ -36239,7 +36239,7 @@
         <v>4487</v>
       </c>
       <c r="B4487">
-        <v>320.0277127974159</v>
+        <v>320.0277127974158</v>
       </c>
     </row>
     <row r="4488" spans="1:2">
@@ -36423,7 +36423,7 @@
         <v>4510</v>
       </c>
       <c r="B4510">
-        <v>378.9555065410526</v>
+        <v>378.9555065410525</v>
       </c>
     </row>
     <row r="4511" spans="1:2">
@@ -36439,7 +36439,7 @@
         <v>4512</v>
       </c>
       <c r="B4512">
-        <v>280.7799323709272</v>
+        <v>280.7799323709271</v>
       </c>
     </row>
     <row r="4513" spans="1:2">
@@ -36495,7 +36495,7 @@
         <v>4519</v>
       </c>
       <c r="B4519">
-        <v>72.25900915026398</v>
+        <v>72.25900915026396</v>
       </c>
     </row>
     <row r="4520" spans="1:2">
@@ -36535,7 +36535,7 @@
         <v>4524</v>
       </c>
       <c r="B4524">
-        <v>338.6113473589318</v>
+        <v>338.6113473589317</v>
       </c>
     </row>
     <row r="4525" spans="1:2">
@@ -36567,7 +36567,7 @@
         <v>4528</v>
       </c>
       <c r="B4528">
-        <v>399.5701234004916</v>
+        <v>399.5701234004915</v>
       </c>
     </row>
     <row r="4529" spans="1:2">
@@ -36591,7 +36591,7 @@
         <v>4531</v>
       </c>
       <c r="B4531">
-        <v>545.8506709275289</v>
+        <v>545.8506709275288</v>
       </c>
     </row>
     <row r="4532" spans="1:2">
@@ -36687,7 +36687,7 @@
         <v>4543</v>
       </c>
       <c r="B4543">
-        <v>69.46457679662805</v>
+        <v>69.46457679662804</v>
       </c>
     </row>
     <row r="4544" spans="1:2">
@@ -36711,7 +36711,7 @@
         <v>4546</v>
       </c>
       <c r="B4546">
-        <v>292.8304273386044</v>
+        <v>292.8304273386043</v>
       </c>
     </row>
     <row r="4547" spans="1:2">
@@ -36767,7 +36767,7 @@
         <v>4553</v>
       </c>
       <c r="B4553">
-        <v>426.6967787389857</v>
+        <v>426.6967787389856</v>
       </c>
     </row>
     <row r="4554" spans="1:2">
@@ -36783,7 +36783,7 @@
         <v>4555</v>
       </c>
       <c r="B4555">
-        <v>572.6871859377483</v>
+        <v>572.6871859377482</v>
       </c>
     </row>
     <row r="4556" spans="1:2">
@@ -36927,7 +36927,7 @@
         <v>4573</v>
       </c>
       <c r="B4573">
-        <v>281.7713916947185</v>
+        <v>281.7713916947184</v>
       </c>
     </row>
     <row r="4574" spans="1:2">
@@ -36935,7 +36935,7 @@
         <v>4574</v>
       </c>
       <c r="B4574">
-        <v>322.7737884296727</v>
+        <v>322.7737884296726</v>
       </c>
     </row>
     <row r="4575" spans="1:2">
@@ -36959,7 +36959,7 @@
         <v>4577</v>
       </c>
       <c r="B4577">
-        <v>402.0260587044737</v>
+        <v>402.0260587044736</v>
       </c>
     </row>
     <row r="4578" spans="1:2">
@@ -36967,7 +36967,7 @@
         <v>4578</v>
       </c>
       <c r="B4578">
-        <v>581.0074727253439</v>
+        <v>581.0074727253437</v>
       </c>
     </row>
     <row r="4579" spans="1:2">
@@ -37159,7 +37159,7 @@
         <v>4602</v>
       </c>
       <c r="B4602">
-        <v>656.2798382951238</v>
+        <v>656.2798382951237</v>
       </c>
     </row>
     <row r="4603" spans="1:2">
@@ -37223,7 +37223,7 @@
         <v>4610</v>
       </c>
       <c r="B4610">
-        <v>268.249973184</v>
+        <v>268.2499731839999</v>
       </c>
     </row>
     <row r="4611" spans="1:2">
@@ -37255,7 +37255,7 @@
         <v>4614</v>
       </c>
       <c r="B4614">
-        <v>238.8581717876924</v>
+        <v>238.8581717876923</v>
       </c>
     </row>
     <row r="4615" spans="1:2">
@@ -37295,7 +37295,7 @@
         <v>4619</v>
       </c>
       <c r="B4619">
-        <v>270.1499527276415</v>
+        <v>270.1499527276414</v>
       </c>
     </row>
     <row r="4620" spans="1:2">
@@ -37399,7 +37399,7 @@
         <v>4632</v>
       </c>
       <c r="B4632">
-        <v>241.7252857589163</v>
+        <v>241.7252857589162</v>
       </c>
     </row>
     <row r="4633" spans="1:2">
@@ -37455,7 +37455,7 @@
         <v>4639</v>
       </c>
       <c r="B4639">
-        <v>35.31183637726684</v>
+        <v>35.31183637726683</v>
       </c>
     </row>
     <row r="4640" spans="1:2">
@@ -37471,7 +37471,7 @@
         <v>4641</v>
       </c>
       <c r="B4641">
-        <v>107.7502050031916</v>
+        <v>107.7502050031915</v>
       </c>
     </row>
     <row r="4642" spans="1:2">
@@ -37519,7 +37519,7 @@
         <v>4647</v>
       </c>
       <c r="B4647">
-        <v>338.3798212383893</v>
+        <v>338.3798212383892</v>
       </c>
     </row>
     <row r="4648" spans="1:2">
@@ -37535,7 +37535,7 @@
         <v>4649</v>
       </c>
       <c r="B4649">
-        <v>392.4484971610209</v>
+        <v>392.4484971610208</v>
       </c>
     </row>
     <row r="4650" spans="1:2">
@@ -37543,7 +37543,7 @@
         <v>4650</v>
       </c>
       <c r="B4650">
-        <v>597.8268196341185</v>
+        <v>597.8268196341184</v>
       </c>
     </row>
     <row r="4651" spans="1:2">
@@ -37559,7 +37559,7 @@
         <v>4652</v>
       </c>
       <c r="B4652">
-        <v>489.926855330171</v>
+        <v>489.9268553301709</v>
       </c>
     </row>
     <row r="4653" spans="1:2">
@@ -37583,7 +37583,7 @@
         <v>4655</v>
       </c>
       <c r="B4655">
-        <v>340.9705692201556</v>
+        <v>340.9705692201555</v>
       </c>
     </row>
     <row r="4656" spans="1:2">
@@ -37599,7 +37599,7 @@
         <v>4657</v>
       </c>
       <c r="B4657">
-        <v>276.8879489775045</v>
+        <v>276.8879489775044</v>
       </c>
     </row>
     <row r="4658" spans="1:2">
@@ -37743,7 +37743,7 @@
         <v>4675</v>
       </c>
       <c r="B4675">
-        <v>648.7772197053933</v>
+        <v>648.7772197053932</v>
       </c>
     </row>
     <row r="4676" spans="1:2">
@@ -37791,7 +37791,7 @@
         <v>4681</v>
       </c>
       <c r="B4681">
-        <v>355.6680818090221</v>
+        <v>355.668081809022</v>
       </c>
     </row>
     <row r="4682" spans="1:2">
@@ -37887,7 +37887,7 @@
         <v>4693</v>
       </c>
       <c r="B4693">
-        <v>499.176177310323</v>
+        <v>499.1761773103229</v>
       </c>
     </row>
     <row r="4694" spans="1:2">
@@ -37927,7 +37927,7 @@
         <v>4698</v>
       </c>
       <c r="B4698">
-        <v>761.808857896301</v>
+        <v>761.8088578963009</v>
       </c>
     </row>
     <row r="4699" spans="1:2">
@@ -37951,7 +37951,7 @@
         <v>4701</v>
       </c>
       <c r="B4701">
-        <v>550.2408750866758</v>
+        <v>550.2408750866757</v>
       </c>
     </row>
     <row r="4702" spans="1:2">
@@ -37999,7 +37999,7 @@
         <v>4707</v>
       </c>
       <c r="B4707">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="4708" spans="1:2">
@@ -38247,7 +38247,7 @@
         <v>4738</v>
       </c>
       <c r="B4738">
-        <v>372.7336083902722</v>
+        <v>372.7336083902721</v>
       </c>
     </row>
     <row r="4739" spans="1:2">
@@ -38279,7 +38279,7 @@
         <v>4742</v>
       </c>
       <c r="B4742">
-        <v>432.6578436653575</v>
+        <v>432.6578436653574</v>
       </c>
     </row>
     <row r="4743" spans="1:2">
@@ -38303,7 +38303,7 @@
         <v>4745</v>
       </c>
       <c r="B4745">
-        <v>488.2153204643887</v>
+        <v>488.2153204643886</v>
       </c>
     </row>
     <row r="4746" spans="1:2">
@@ -38311,7 +38311,7 @@
         <v>4746</v>
       </c>
       <c r="B4746">
-        <v>638.2090780512652</v>
+        <v>638.2090780512651</v>
       </c>
     </row>
     <row r="4747" spans="1:2">
@@ -38351,7 +38351,7 @@
         <v>4751</v>
       </c>
       <c r="B4751">
-        <v>334.1302911777998</v>
+        <v>334.1302911777997</v>
       </c>
     </row>
     <row r="4752" spans="1:2">
@@ -38559,7 +38559,7 @@
         <v>4777</v>
       </c>
       <c r="B4777">
-        <v>249.1004184468291</v>
+        <v>249.100418446829</v>
       </c>
     </row>
     <row r="4778" spans="1:2">
@@ -38711,7 +38711,7 @@
         <v>4796</v>
       </c>
       <c r="B4796">
-        <v>468.3890646989487</v>
+        <v>468.3890646989486</v>
       </c>
     </row>
     <row r="4797" spans="1:2">
@@ -38759,7 +38759,7 @@
         <v>4802</v>
       </c>
       <c r="B4802">
-        <v>213.5491430309759</v>
+        <v>213.5491430309758</v>
       </c>
     </row>
     <row r="4803" spans="1:2">
@@ -39047,7 +39047,7 @@
         <v>4838</v>
       </c>
       <c r="B4838">
-        <v>294.1055794278199</v>
+        <v>294.1055794278198</v>
       </c>
     </row>
     <row r="4839" spans="1:2">
@@ -39079,7 +39079,7 @@
         <v>4842</v>
       </c>
       <c r="B4842">
-        <v>547.146044918412</v>
+        <v>547.1460449184119</v>
       </c>
     </row>
     <row r="4843" spans="1:2">
@@ -39143,7 +39143,7 @@
         <v>4850</v>
       </c>
       <c r="B4850">
-        <v>261.991441153387</v>
+        <v>261.9914411533869</v>
       </c>
     </row>
     <row r="4851" spans="1:2">
@@ -39255,7 +39255,7 @@
         <v>4864</v>
       </c>
       <c r="B4864">
-        <v>344.2822719570288</v>
+        <v>344.2822719570287</v>
       </c>
     </row>
     <row r="4865" spans="1:2">
@@ -39375,7 +39375,7 @@
         <v>4879</v>
       </c>
       <c r="B4879">
-        <v>85.33144282975329</v>
+        <v>85.33144282975327</v>
       </c>
     </row>
     <row r="4880" spans="1:2">
@@ -39439,7 +39439,7 @@
         <v>4887</v>
       </c>
       <c r="B4887">
-        <v>379.7438676350516</v>
+        <v>379.7438676350515</v>
       </c>
     </row>
     <row r="4888" spans="1:2">
@@ -39543,7 +39543,7 @@
         <v>4900</v>
       </c>
       <c r="B4900">
-        <v>202.1589371134027</v>
+        <v>202.1589371134026</v>
       </c>
     </row>
     <row r="4901" spans="1:2">
@@ -39583,7 +39583,7 @@
         <v>4905</v>
       </c>
       <c r="B4905">
-        <v>210.4194374091114</v>
+        <v>210.4194374091113</v>
       </c>
     </row>
     <row r="4906" spans="1:2">
@@ -39655,7 +39655,7 @@
         <v>4914</v>
       </c>
       <c r="B4914">
-        <v>621.7179707057913</v>
+        <v>621.7179707057912</v>
       </c>
     </row>
     <row r="4915" spans="1:2">
@@ -39663,7 +39663,7 @@
         <v>4915</v>
       </c>
       <c r="B4915">
-        <v>577.3323619005306</v>
+        <v>577.3323619005305</v>
       </c>
     </row>
     <row r="4916" spans="1:2">
@@ -39671,7 +39671,7 @@
         <v>4916</v>
       </c>
       <c r="B4916">
-        <v>507.2971757916289</v>
+        <v>507.2971757916288</v>
       </c>
     </row>
     <row r="4917" spans="1:2">
@@ -39695,7 +39695,7 @@
         <v>4919</v>
       </c>
       <c r="B4919">
-        <v>357.2829032320461</v>
+        <v>357.282903232046</v>
       </c>
     </row>
     <row r="4920" spans="1:2">
@@ -39783,7 +39783,7 @@
         <v>4930</v>
       </c>
       <c r="B4930">
-        <v>232.0381156470042</v>
+        <v>232.0381156470041</v>
       </c>
     </row>
     <row r="4931" spans="1:2">
@@ -39943,7 +39943,7 @@
         <v>4950</v>
       </c>
       <c r="B4950">
-        <v>296.7930408523444</v>
+        <v>296.7930408523443</v>
       </c>
     </row>
     <row r="4951" spans="1:2">
@@ -40119,7 +40119,7 @@
         <v>4972</v>
       </c>
       <c r="B4972">
-        <v>291.4814213476462</v>
+        <v>291.4814213476461</v>
       </c>
     </row>
     <row r="4973" spans="1:2">
@@ -40135,7 +40135,7 @@
         <v>4974</v>
       </c>
       <c r="B4974">
-        <v>294.8060192102205</v>
+        <v>294.8060192102204</v>
       </c>
     </row>
     <row r="4975" spans="1:2">
@@ -40199,7 +40199,7 @@
         <v>4982</v>
       </c>
       <c r="B4982">
-        <v>502.8981795013221</v>
+        <v>502.898179501322</v>
       </c>
     </row>
     <row r="4983" spans="1:2">
@@ -40215,7 +40215,7 @@
         <v>4984</v>
       </c>
       <c r="B4984">
-        <v>572.4351448444995</v>
+        <v>572.4351448444994</v>
       </c>
     </row>
     <row r="4985" spans="1:2">
@@ -40359,7 +40359,7 @@
         <v>5002</v>
       </c>
       <c r="B5002">
-        <v>409.02166439732</v>
+        <v>409.0216643973199</v>
       </c>
     </row>
     <row r="5003" spans="1:2">
@@ -40383,7 +40383,7 @@
         <v>5005</v>
       </c>
       <c r="B5005">
-        <v>399.9862842753907</v>
+        <v>399.9862842753906</v>
       </c>
     </row>
     <row r="5006" spans="1:2">
@@ -40439,7 +40439,7 @@
         <v>5012</v>
       </c>
       <c r="B5012">
-        <v>565.691580244902</v>
+        <v>565.6915802449018</v>
       </c>
     </row>
     <row r="5013" spans="1:2">
@@ -40455,7 +40455,7 @@
         <v>5014</v>
       </c>
       <c r="B5014">
-        <v>488.4673615576375</v>
+        <v>488.4673615576374</v>
       </c>
     </row>
     <row r="5015" spans="1:2">
@@ -40463,7 +40463,7 @@
         <v>5015</v>
       </c>
       <c r="B5015">
-        <v>438.173440612964</v>
+        <v>438.1734406129639</v>
       </c>
     </row>
     <row r="5016" spans="1:2">
@@ -40487,7 +40487,7 @@
         <v>5018</v>
       </c>
       <c r="B5018">
-        <v>343.1275720647031</v>
+        <v>343.127572064703</v>
       </c>
     </row>
     <row r="5019" spans="1:2">
@@ -40559,7 +40559,7 @@
         <v>5027</v>
       </c>
       <c r="B5027">
-        <v>378.9848136449187</v>
+        <v>378.9848136449186</v>
       </c>
     </row>
     <row r="5028" spans="1:2">
@@ -40631,7 +40631,7 @@
         <v>5036</v>
       </c>
       <c r="B5036">
-        <v>588.3899321892231</v>
+        <v>588.389932189223</v>
       </c>
     </row>
     <row r="5037" spans="1:2">
@@ -40695,7 +40695,7 @@
         <v>5044</v>
       </c>
       <c r="B5044">
-        <v>303.2376729925074</v>
+        <v>303.2376729925073</v>
       </c>
     </row>
     <row r="5045" spans="1:2">
@@ -40839,7 +40839,7 @@
         <v>5062</v>
       </c>
       <c r="B5062">
-        <v>530.3413515615705</v>
+        <v>530.3413515615704</v>
       </c>
     </row>
     <row r="5063" spans="1:2">
@@ -40991,7 +40991,7 @@
         <v>5081</v>
       </c>
       <c r="B5081">
-        <v>642.9275217737129</v>
+        <v>642.9275217737128</v>
       </c>
     </row>
     <row r="5082" spans="1:2">
@@ -41055,7 +41055,7 @@
         <v>5089</v>
       </c>
       <c r="B5089">
-        <v>427.0836325100187</v>
+        <v>427.0836325100186</v>
       </c>
     </row>
     <row r="5090" spans="1:2">
@@ -41127,7 +41127,7 @@
         <v>5098</v>
       </c>
       <c r="B5098">
-        <v>382.8767970383414</v>
+        <v>382.8767970383413</v>
       </c>
     </row>
     <row r="5099" spans="1:2">
@@ -41167,7 +41167,7 @@
         <v>5103</v>
       </c>
       <c r="B5103">
-        <v>526.3526547253896</v>
+        <v>526.3526547253895</v>
       </c>
     </row>
     <row r="5104" spans="1:2">
@@ -41215,7 +41215,7 @@
         <v>5109</v>
       </c>
       <c r="B5109">
-        <v>617.1167553988082</v>
+        <v>617.1167553988081</v>
       </c>
     </row>
     <row r="5110" spans="1:2">
@@ -41319,7 +41319,7 @@
         <v>5122</v>
       </c>
       <c r="B5122">
-        <v>469.274139235706</v>
+        <v>469.2741392357059</v>
       </c>
     </row>
     <row r="5123" spans="1:2">
@@ -41391,7 +41391,7 @@
         <v>5131</v>
       </c>
       <c r="B5131">
-        <v>785.2223031749559</v>
+        <v>785.2223031749558</v>
       </c>
     </row>
     <row r="5132" spans="1:2">
@@ -41463,7 +41463,7 @@
         <v>5140</v>
       </c>
       <c r="B5140">
-        <v>344.5870658372366</v>
+        <v>344.5870658372365</v>
       </c>
     </row>
     <row r="5141" spans="1:2">
@@ -41479,7 +41479,7 @@
         <v>5142</v>
       </c>
       <c r="B5142">
-        <v>330.5284481126519</v>
+        <v>330.5284481126518</v>
       </c>
     </row>
     <row r="5143" spans="1:2">
@@ -41495,7 +41495,7 @@
         <v>5144</v>
       </c>
       <c r="B5144">
-        <v>259.9800946150542</v>
+        <v>259.9800946150541</v>
       </c>
     </row>
     <row r="5145" spans="1:2">
@@ -41535,7 +41535,7 @@
         <v>5149</v>
       </c>
       <c r="B5149">
-        <v>412.1780394837027</v>
+        <v>412.1780394837026</v>
       </c>
     </row>
     <row r="5150" spans="1:2">
@@ -41591,7 +41591,7 @@
         <v>5156</v>
       </c>
       <c r="B5156">
-        <v>610.9417486142137</v>
+        <v>610.9417486142136</v>
       </c>
     </row>
     <row r="5157" spans="1:2">
@@ -41695,7 +41695,7 @@
         <v>5169</v>
       </c>
       <c r="B5169">
-        <v>358.8537639992709</v>
+        <v>358.8537639992708</v>
       </c>
     </row>
     <row r="5170" spans="1:2">
@@ -41743,7 +41743,7 @@
         <v>5175</v>
       </c>
       <c r="B5175">
-        <v>550.9999290768087</v>
+        <v>550.9999290768086</v>
       </c>
     </row>
     <row r="5176" spans="1:2">
@@ -41759,7 +41759,7 @@
         <v>5177</v>
       </c>
       <c r="B5177">
-        <v>595.4470828001884</v>
+        <v>595.4470828001882</v>
       </c>
     </row>
     <row r="5178" spans="1:2">
@@ -41783,7 +41783,7 @@
         <v>5180</v>
       </c>
       <c r="B5180">
-        <v>593.1845743817228</v>
+        <v>593.1845743817227</v>
       </c>
     </row>
     <row r="5181" spans="1:2">
@@ -41855,7 +41855,7 @@
         <v>5189</v>
       </c>
       <c r="B5189">
-        <v>290.2599012585057</v>
+        <v>290.2599012585056</v>
       </c>
     </row>
     <row r="5190" spans="1:2">
@@ -41863,7 +41863,7 @@
         <v>5190</v>
       </c>
       <c r="B5190">
-        <v>293.5633980062964</v>
+        <v>293.5633980062963</v>
       </c>
     </row>
     <row r="5191" spans="1:2">
@@ -41911,7 +41911,7 @@
         <v>5196</v>
       </c>
       <c r="B5196">
-        <v>346.7001080259849</v>
+        <v>346.7001080259848</v>
       </c>
     </row>
     <row r="5197" spans="1:2">
@@ -41959,7 +41959,7 @@
         <v>5202</v>
       </c>
       <c r="B5202">
-        <v>645.5622304112784</v>
+        <v>645.5622304112783</v>
       </c>
     </row>
     <row r="5203" spans="1:2">
@@ -41967,7 +41967,7 @@
         <v>5203</v>
       </c>
       <c r="B5203">
-        <v>601.1180073982854</v>
+        <v>601.1180073982853</v>
       </c>
     </row>
     <row r="5204" spans="1:2">
@@ -41975,7 +41975,7 @@
         <v>5204</v>
       </c>
       <c r="B5204">
-        <v>538.245477474267</v>
+        <v>538.2454774742669</v>
       </c>
     </row>
     <row r="5205" spans="1:2">
@@ -41999,7 +41999,7 @@
         <v>5207</v>
       </c>
       <c r="B5207">
-        <v>414.3203887763171</v>
+        <v>414.320388776317</v>
       </c>
     </row>
     <row r="5208" spans="1:2">
@@ -42079,7 +42079,7 @@
         <v>5217</v>
       </c>
       <c r="B5217">
-        <v>326.7185246100544</v>
+        <v>326.7185246100543</v>
       </c>
     </row>
     <row r="5218" spans="1:2">
@@ -42143,7 +42143,7 @@
         <v>5225</v>
       </c>
       <c r="B5225">
-        <v>587.1414495645258</v>
+        <v>587.1414495645257</v>
       </c>
     </row>
     <row r="5226" spans="1:2">
@@ -42151,7 +42151,7 @@
         <v>5226</v>
       </c>
       <c r="B5226">
-        <v>725.7142287747697</v>
+        <v>725.7142287747696</v>
       </c>
     </row>
     <row r="5227" spans="1:2">
@@ -42287,7 +42287,7 @@
         <v>5243</v>
       </c>
       <c r="B5243">
-        <v>373.1878685001973</v>
+        <v>373.1878685001972</v>
       </c>
     </row>
     <row r="5244" spans="1:2">
@@ -42311,7 +42311,7 @@
         <v>5246</v>
       </c>
       <c r="B5246">
-        <v>473.6643433948529</v>
+        <v>473.6643433948528</v>
       </c>
     </row>
     <row r="5247" spans="1:2">
@@ -42439,7 +42439,7 @@
         <v>5262</v>
       </c>
       <c r="B5262">
-        <v>44.81700937417025</v>
+        <v>44.81700937417024</v>
       </c>
     </row>
     <row r="5263" spans="1:2">
@@ -42567,7 +42567,7 @@
         <v>5278</v>
       </c>
       <c r="B5278">
-        <v>249.3328237804875</v>
+        <v>249.3328237804874</v>
       </c>
     </row>
     <row r="5279" spans="1:2">
@@ -42615,7 +42615,7 @@
         <v>5284</v>
       </c>
       <c r="B5284">
-        <v>42.30509750180386</v>
+        <v>42.30509750180385</v>
       </c>
     </row>
     <row r="5285" spans="1:2">
@@ -42735,7 +42735,7 @@
         <v>5299</v>
       </c>
       <c r="B5299">
-        <v>414.252982437425</v>
+        <v>414.2529824374249</v>
       </c>
     </row>
     <row r="5300" spans="1:2">
@@ -42743,7 +42743,7 @@
         <v>5300</v>
       </c>
       <c r="B5300">
-        <v>338.2010479048059</v>
+        <v>338.2010479048058</v>
       </c>
     </row>
     <row r="5301" spans="1:2">
@@ -42767,7 +42767,7 @@
         <v>5303</v>
       </c>
       <c r="B5303">
-        <v>188.4537630614436</v>
+        <v>188.4537630614435</v>
       </c>
     </row>
     <row r="5304" spans="1:2">
@@ -42807,7 +42807,7 @@
         <v>5308</v>
       </c>
       <c r="B5308">
-        <v>53.1452090798097</v>
+        <v>53.14520907980969</v>
       </c>
     </row>
     <row r="5309" spans="1:2">
@@ -42927,7 +42927,7 @@
         <v>5323</v>
       </c>
       <c r="B5323">
-        <v>389.3448748615973</v>
+        <v>389.3448748615972</v>
       </c>
     </row>
     <row r="5324" spans="1:2">
@@ -43215,7 +43215,7 @@
         <v>5359</v>
       </c>
       <c r="B5359">
-        <v>43.41847437767831</v>
+        <v>43.4184743776783</v>
       </c>
     </row>
     <row r="5360" spans="1:2">
@@ -43263,7 +43263,7 @@
         <v>5365</v>
       </c>
       <c r="B5365">
-        <v>295.8024607416691</v>
+        <v>295.802460741669</v>
       </c>
     </row>
     <row r="5366" spans="1:2">
@@ -43295,7 +43295,7 @@
         <v>5369</v>
       </c>
       <c r="B5369">
-        <v>410.7859520500613</v>
+        <v>410.7859520500612</v>
       </c>
     </row>
     <row r="5370" spans="1:2">
@@ -43343,7 +43343,7 @@
         <v>5375</v>
       </c>
       <c r="B5375">
-        <v>307.50185660503</v>
+        <v>307.5018566050299</v>
       </c>
     </row>
     <row r="5376" spans="1:2">
@@ -43511,7 +43511,7 @@
         <v>5396</v>
       </c>
       <c r="B5396">
-        <v>449.6120032519163</v>
+        <v>449.6120032519162</v>
       </c>
     </row>
     <row r="5397" spans="1:2">
@@ -43647,7 +43647,7 @@
         <v>5413</v>
       </c>
       <c r="B5413">
-        <v>364.6653626959254</v>
+        <v>364.6653626959253</v>
       </c>
     </row>
     <row r="5414" spans="1:2">
@@ -43735,7 +43735,7 @@
         <v>5424</v>
       </c>
       <c r="B5424">
-        <v>288.7775479449566</v>
+        <v>288.7775479449565</v>
       </c>
     </row>
     <row r="5425" spans="1:2">
@@ -43799,7 +43799,7 @@
         <v>5432</v>
       </c>
       <c r="B5432">
-        <v>77.28341903707408</v>
+        <v>77.28341903707407</v>
       </c>
     </row>
     <row r="5433" spans="1:2">
@@ -43839,7 +43839,7 @@
         <v>5437</v>
       </c>
       <c r="B5437">
-        <v>251.3585307997147</v>
+        <v>251.3585307997146</v>
       </c>
     </row>
     <row r="5438" spans="1:2">
@@ -43959,7 +43959,7 @@
         <v>5452</v>
       </c>
       <c r="B5452">
-        <v>220.8413366149475</v>
+        <v>220.8413366149474</v>
       </c>
     </row>
     <row r="5453" spans="1:2">
@@ -43983,7 +43983,7 @@
         <v>5455</v>
       </c>
       <c r="B5455">
-        <v>45.47466078492631</v>
+        <v>45.4746607849263</v>
       </c>
     </row>
     <row r="5456" spans="1:2">
@@ -43999,7 +43999,7 @@
         <v>5457</v>
       </c>
       <c r="B5457">
-        <v>207.6417101046792</v>
+        <v>207.6417101046791</v>
       </c>
     </row>
     <row r="5458" spans="1:2">
@@ -44135,7 +44135,7 @@
         <v>5474</v>
       </c>
       <c r="B5474">
-        <v>241.7094599228286</v>
+        <v>241.7094599228285</v>
       </c>
     </row>
     <row r="5475" spans="1:2">
@@ -44151,7 +44151,7 @@
         <v>5476</v>
       </c>
       <c r="B5476">
-        <v>209.8242101295902</v>
+        <v>209.8242101295901</v>
       </c>
     </row>
     <row r="5477" spans="1:2">
@@ -44231,7 +44231,7 @@
         <v>5486</v>
       </c>
       <c r="B5486">
-        <v>336.5422658259827</v>
+        <v>336.5422658259826</v>
       </c>
     </row>
     <row r="5487" spans="1:2">
@@ -44303,7 +44303,7 @@
         <v>5495</v>
       </c>
       <c r="B5495">
-        <v>362.2475266269693</v>
+        <v>362.2475266269692</v>
       </c>
     </row>
     <row r="5496" spans="1:2">
@@ -44343,7 +44343,7 @@
         <v>5500</v>
       </c>
       <c r="B5500">
-        <v>246.3625488036548</v>
+        <v>246.3625488036547</v>
       </c>
     </row>
     <row r="5501" spans="1:2">
@@ -44407,7 +44407,7 @@
         <v>5508</v>
       </c>
       <c r="B5508">
-        <v>380.9425281831765</v>
+        <v>380.9425281831764</v>
       </c>
     </row>
     <row r="5509" spans="1:2">
@@ -44415,7 +44415,7 @@
         <v>5509</v>
       </c>
       <c r="B5509">
-        <v>436.6699861846313</v>
+        <v>436.6699861846312</v>
       </c>
     </row>
     <row r="5510" spans="1:2">
@@ -44431,7 +44431,7 @@
         <v>5511</v>
       </c>
       <c r="B5511">
-        <v>486.3982800246884</v>
+        <v>486.3982800246883</v>
       </c>
     </row>
     <row r="5512" spans="1:2">
@@ -44439,7 +44439,7 @@
         <v>5512</v>
       </c>
       <c r="B5512">
-        <v>449.7380237985407</v>
+        <v>449.7380237985406</v>
       </c>
     </row>
     <row r="5513" spans="1:2">
@@ -44471,7 +44471,7 @@
         <v>5516</v>
       </c>
       <c r="B5516">
-        <v>472.0729676549218</v>
+        <v>472.0729676549217</v>
       </c>
     </row>
     <row r="5517" spans="1:2">
@@ -44607,7 +44607,7 @@
         <v>5533</v>
       </c>
       <c r="B5533">
-        <v>352.7285792912488</v>
+        <v>352.7285792912487</v>
       </c>
     </row>
     <row r="5534" spans="1:2">
@@ -44743,7 +44743,7 @@
         <v>5550</v>
       </c>
       <c r="B5550">
-        <v>255.8647910901716</v>
+        <v>255.8647910901715</v>
       </c>
     </row>
     <row r="5551" spans="1:2">
@@ -44775,7 +44775,7 @@
         <v>5554</v>
       </c>
       <c r="B5554">
-        <v>363.5194549347595</v>
+        <v>363.5194549347594</v>
       </c>
     </row>
     <row r="5555" spans="1:2">
@@ -44823,7 +44823,7 @@
         <v>5560</v>
       </c>
       <c r="B5560">
-        <v>544.4820291769804</v>
+        <v>544.4820291769803</v>
       </c>
     </row>
     <row r="5561" spans="1:2">
@@ -44879,7 +44879,7 @@
         <v>5567</v>
       </c>
       <c r="B5567">
-        <v>365.4097631341252</v>
+        <v>365.4097631341251</v>
       </c>
     </row>
     <row r="5568" spans="1:2">
@@ -44943,7 +44943,7 @@
         <v>5575</v>
       </c>
       <c r="B5575">
-        <v>41.78284491090934</v>
+        <v>41.78284491090933</v>
       </c>
     </row>
     <row r="5576" spans="1:2">
@@ -44959,7 +44959,7 @@
         <v>5577</v>
       </c>
       <c r="B5577">
-        <v>99.85311279542294</v>
+        <v>99.85311279542292</v>
       </c>
     </row>
     <row r="5578" spans="1:2">
@@ -45031,7 +45031,7 @@
         <v>5586</v>
       </c>
       <c r="B5586">
-        <v>482.0520365213406</v>
+        <v>482.0520365213405</v>
       </c>
     </row>
     <row r="5587" spans="1:2">
@@ -45335,7 +45335,7 @@
         <v>5624</v>
       </c>
       <c r="B5624">
-        <v>44.93453086067345</v>
+        <v>44.93453086067344</v>
       </c>
     </row>
     <row r="5625" spans="1:2">
@@ -45391,7 +45391,7 @@
         <v>5631</v>
       </c>
       <c r="B5631">
-        <v>368.6394059801732</v>
+        <v>368.6394059801731</v>
       </c>
     </row>
     <row r="5632" spans="1:2">
@@ -45495,7 +45495,7 @@
         <v>5644</v>
       </c>
       <c r="B5644">
-        <v>86.12156234998427</v>
+        <v>86.12156234998426</v>
       </c>
     </row>
     <row r="5645" spans="1:2">
@@ -45511,7 +45511,7 @@
         <v>5646</v>
       </c>
       <c r="B5646">
-        <v>77.41852478589696</v>
+        <v>77.41852478589695</v>
       </c>
     </row>
     <row r="5647" spans="1:2">
@@ -45543,7 +45543,7 @@
         <v>5650</v>
       </c>
       <c r="B5650">
-        <v>189.9381678722633</v>
+        <v>189.9381678722632</v>
       </c>
     </row>
     <row r="5651" spans="1:2">
@@ -45551,7 +45551,7 @@
         <v>5651</v>
       </c>
       <c r="B5651">
-        <v>237.7069887478306</v>
+        <v>237.7069887478305</v>
       </c>
     </row>
     <row r="5652" spans="1:2">
@@ -45823,7 +45823,7 @@
         <v>5685</v>
       </c>
       <c r="B5685">
-        <v>394.8809867819101</v>
+        <v>394.88098678191</v>
       </c>
     </row>
     <row r="5686" spans="1:2">
@@ -45879,7 +45879,7 @@
         <v>5692</v>
       </c>
       <c r="B5692">
-        <v>216.8798953853621</v>
+        <v>216.879895385362</v>
       </c>
     </row>
     <row r="5693" spans="1:2">
@@ -45927,7 +45927,7 @@
         <v>5698</v>
       </c>
       <c r="B5698">
-        <v>329.8807611172103</v>
+        <v>329.8807611172102</v>
       </c>
     </row>
     <row r="5699" spans="1:2">
@@ -45991,7 +45991,7 @@
         <v>5706</v>
       </c>
       <c r="B5706">
-        <v>512.2119771099797</v>
+        <v>512.2119771099796</v>
       </c>
     </row>
     <row r="5707" spans="1:2">
@@ -46007,7 +46007,7 @@
         <v>5708</v>
       </c>
       <c r="B5708">
-        <v>392.1876639366123</v>
+        <v>392.1876639366122</v>
       </c>
     </row>
     <row r="5709" spans="1:2">
@@ -46103,7 +46103,7 @@
         <v>5720</v>
       </c>
       <c r="B5720">
-        <v>67.84711773425609</v>
+        <v>67.84711773425607</v>
       </c>
     </row>
     <row r="5721" spans="1:2">
@@ -46207,7 +46207,7 @@
         <v>5733</v>
       </c>
       <c r="B5733">
-        <v>403.8870597999732</v>
+        <v>403.8870597999731</v>
       </c>
     </row>
     <row r="5734" spans="1:2">
@@ -46223,7 +46223,7 @@
         <v>5735</v>
       </c>
       <c r="B5735">
-        <v>317.7652043789503</v>
+        <v>317.7652043789502</v>
       </c>
     </row>
     <row r="5736" spans="1:2">
@@ -46351,7 +46351,7 @@
         <v>5751</v>
       </c>
       <c r="B5751">
-        <v>425.3193448572774</v>
+        <v>425.3193448572773</v>
       </c>
     </row>
     <row r="5752" spans="1:2">
@@ -46407,7 +46407,7 @@
         <v>5758</v>
       </c>
       <c r="B5758">
-        <v>418.6812858315979</v>
+        <v>418.6812858315978</v>
       </c>
     </row>
     <row r="5759" spans="1:2">
@@ -46663,7 +46663,7 @@
         <v>5790</v>
       </c>
       <c r="B5790">
-        <v>93.7789224481279</v>
+        <v>93.77892244812789</v>
       </c>
     </row>
     <row r="5791" spans="1:2">
@@ -46671,7 +46671,7 @@
         <v>5791</v>
       </c>
       <c r="B5791">
-        <v>21.89990920659223</v>
+        <v>21.89990920659222</v>
       </c>
     </row>
     <row r="5792" spans="1:2">
@@ -46695,7 +46695,7 @@
         <v>5794</v>
       </c>
       <c r="B5794">
-        <v>202.2146206107484</v>
+        <v>202.2146206107483</v>
       </c>
     </row>
     <row r="5795" spans="1:2">
@@ -46767,7 +46767,7 @@
         <v>5803</v>
       </c>
       <c r="B5803">
-        <v>452.7449326552061</v>
+        <v>452.744932655206</v>
       </c>
     </row>
     <row r="5804" spans="1:2">
@@ -46823,7 +46823,7 @@
         <v>5810</v>
       </c>
       <c r="B5810">
-        <v>87.46675841743985</v>
+        <v>87.46675841743983</v>
       </c>
     </row>
     <row r="5811" spans="1:2">
@@ -46879,7 +46879,7 @@
         <v>5817</v>
       </c>
       <c r="B5817">
-        <v>53.64723976903658</v>
+        <v>53.64723976903657</v>
       </c>
     </row>
     <row r="5818" spans="1:2">
@@ -47087,7 +47087,7 @@
         <v>5843</v>
       </c>
       <c r="B5843">
-        <v>279.1610079533619</v>
+        <v>279.1610079533618</v>
       </c>
     </row>
     <row r="5844" spans="1:2">
@@ -47167,7 +47167,7 @@
         <v>5853</v>
       </c>
       <c r="B5853">
-        <v>445.6291678365086</v>
+        <v>445.6291678365085</v>
       </c>
     </row>
     <row r="5854" spans="1:2">
@@ -47183,7 +47183,7 @@
         <v>5855</v>
       </c>
       <c r="B5855">
-        <v>364.6653626959254</v>
+        <v>364.6653626959253</v>
       </c>
     </row>
     <row r="5856" spans="1:2">
@@ -47207,7 +47207,7 @@
         <v>5858</v>
       </c>
       <c r="B5858">
-        <v>285.3659079838999</v>
+        <v>285.3659079838998</v>
       </c>
     </row>
     <row r="5859" spans="1:2">
@@ -47255,7 +47255,7 @@
         <v>5864</v>
       </c>
       <c r="B5864">
-        <v>184.7824621601329</v>
+        <v>184.7824621601328</v>
       </c>
     </row>
     <row r="5865" spans="1:2">
@@ -47287,7 +47287,7 @@
         <v>5868</v>
       </c>
       <c r="B5868">
-        <v>450.1395311215067</v>
+        <v>450.1395311215066</v>
       </c>
     </row>
     <row r="5869" spans="1:2">
@@ -47327,7 +47327,7 @@
         <v>5873</v>
       </c>
       <c r="B5873">
-        <v>411.4101933624099</v>
+        <v>411.4101933624098</v>
       </c>
     </row>
     <row r="5874" spans="1:2">
@@ -47375,7 +47375,7 @@
         <v>5879</v>
       </c>
       <c r="B5879">
-        <v>308.7972305959131</v>
+        <v>308.797230595913</v>
       </c>
     </row>
     <row r="5880" spans="1:2">
@@ -47495,7 +47495,7 @@
         <v>5894</v>
       </c>
       <c r="B5894">
-        <v>356.828643122121</v>
+        <v>356.8286431221209</v>
       </c>
     </row>
     <row r="5895" spans="1:2">
@@ -47503,7 +47503,7 @@
         <v>5895</v>
       </c>
       <c r="B5895">
-        <v>384.752451685774</v>
+        <v>384.7524516857739</v>
       </c>
     </row>
     <row r="5896" spans="1:2">
@@ -47551,7 +47551,7 @@
         <v>5901</v>
       </c>
       <c r="B5901">
-        <v>351.1430649720909</v>
+        <v>351.1430649720908</v>
       </c>
     </row>
     <row r="5902" spans="1:2">
@@ -47567,7 +47567,7 @@
         <v>5903</v>
       </c>
       <c r="B5903">
-        <v>264.3084607850436</v>
+        <v>264.3084607850435</v>
       </c>
     </row>
     <row r="5904" spans="1:2">
@@ -47623,7 +47623,7 @@
         <v>5910</v>
       </c>
       <c r="B5910">
-        <v>114.3053249249299</v>
+        <v>114.3053249249298</v>
       </c>
     </row>
     <row r="5911" spans="1:2">
@@ -47655,7 +47655,7 @@
         <v>5914</v>
       </c>
       <c r="B5914">
-        <v>224.9815511781163</v>
+        <v>224.9815511781162</v>
       </c>
     </row>
     <row r="5915" spans="1:2">
@@ -47719,7 +47719,7 @@
         <v>5922</v>
       </c>
       <c r="B5922">
-        <v>535.2678757214677</v>
+        <v>535.2678757214676</v>
       </c>
     </row>
     <row r="5923" spans="1:2">
@@ -47743,7 +47743,7 @@
         <v>5925</v>
       </c>
       <c r="B5925">
-        <v>348.1742553504515</v>
+        <v>348.1742553504514</v>
       </c>
     </row>
     <row r="5926" spans="1:2">
@@ -47911,7 +47911,7 @@
         <v>5946</v>
       </c>
       <c r="B5946">
-        <v>580.649926058177</v>
+        <v>580.6499260581769</v>
       </c>
     </row>
     <row r="5947" spans="1:2">
@@ -47951,7 +47951,7 @@
         <v>5951</v>
       </c>
       <c r="B5951">
-        <v>310.731499451078</v>
+        <v>310.7314994510779</v>
       </c>
     </row>
     <row r="5952" spans="1:2">
@@ -48055,7 +48055,7 @@
         <v>5964</v>
       </c>
       <c r="B5964">
-        <v>294.3517591002954</v>
+        <v>294.3517591002953</v>
       </c>
     </row>
     <row r="5965" spans="1:2">
@@ -48087,7 +48087,7 @@
         <v>5968</v>
       </c>
       <c r="B5968">
-        <v>433.9004648692816</v>
+        <v>433.9004648692815</v>
       </c>
     </row>
     <row r="5969" spans="1:2">
@@ -48143,7 +48143,7 @@
         <v>5975</v>
       </c>
       <c r="B5975">
-        <v>354.2759943753807</v>
+        <v>354.2759943753806</v>
       </c>
     </row>
     <row r="5976" spans="1:2">
@@ -48207,7 +48207,7 @@
         <v>5983</v>
       </c>
       <c r="B5983">
-        <v>71.2224168865188</v>
+        <v>71.22241688651879</v>
       </c>
     </row>
     <row r="5984" spans="1:2">
@@ -48263,7 +48263,7 @@
         <v>5990</v>
       </c>
       <c r="B5990">
-        <v>453.3926196506477</v>
+        <v>453.3926196506476</v>
       </c>
     </row>
     <row r="5991" spans="1:2">
@@ -48367,7 +48367,7 @@
         <v>6003</v>
       </c>
       <c r="B6003">
-        <v>213.6227038616799</v>
+        <v>213.6227038616798</v>
       </c>
     </row>
     <row r="6004" spans="1:2">
@@ -48375,7 +48375,7 @@
         <v>6004</v>
       </c>
       <c r="B6004">
-        <v>196.472186679218</v>
+        <v>196.4721866792179</v>
       </c>
     </row>
     <row r="6005" spans="1:2">
@@ -48495,7 +48495,7 @@
         <v>6019</v>
       </c>
       <c r="B6019">
-        <v>496.4388938092261</v>
+        <v>496.438893809226</v>
       </c>
     </row>
     <row r="6020" spans="1:2">
@@ -48543,7 +48543,7 @@
         <v>6025</v>
       </c>
       <c r="B6025">
-        <v>259.2746726249963</v>
+        <v>259.2746726249962</v>
       </c>
     </row>
     <row r="6026" spans="1:2">
@@ -48655,7 +48655,7 @@
         <v>6039</v>
       </c>
       <c r="B6039">
-        <v>382.1998029390337</v>
+        <v>382.1998029390336</v>
       </c>
     </row>
     <row r="6040" spans="1:2">
@@ -48687,7 +48687,7 @@
         <v>6043</v>
       </c>
       <c r="B6043">
-        <v>443.0999647728612</v>
+        <v>443.0999647728611</v>
       </c>
     </row>
     <row r="6044" spans="1:2">
@@ -49047,7 +49047,7 @@
         <v>6088</v>
       </c>
       <c r="B6088">
-        <v>412.0959795928775</v>
+        <v>412.0959795928774</v>
       </c>
     </row>
     <row r="6089" spans="1:2">
@@ -49095,7 +49095,7 @@
         <v>6094</v>
       </c>
       <c r="B6094">
-        <v>329.0543007881853</v>
+        <v>329.0543007881852</v>
       </c>
     </row>
     <row r="6095" spans="1:2">
@@ -49159,7 +49159,7 @@
         <v>6102</v>
       </c>
       <c r="B6102">
-        <v>92.5415765228997</v>
+        <v>92.54157652289967</v>
       </c>
     </row>
     <row r="6103" spans="1:2">
@@ -49271,7 +49271,7 @@
         <v>6116</v>
       </c>
       <c r="B6116">
-        <v>354.1499738287563</v>
+        <v>354.1499738287562</v>
       </c>
     </row>
     <row r="6117" spans="1:2">
@@ -49447,7 +49447,7 @@
         <v>6138</v>
       </c>
       <c r="B6138">
-        <v>482.5209501831988</v>
+        <v>482.5209501831987</v>
       </c>
     </row>
     <row r="6139" spans="1:2">
@@ -49463,7 +49463,7 @@
         <v>6140</v>
       </c>
       <c r="B6140">
-        <v>370.5678134145649</v>
+        <v>370.5678134145648</v>
       </c>
     </row>
     <row r="6141" spans="1:2">
@@ -49551,7 +49551,7 @@
         <v>6151</v>
       </c>
       <c r="B6151">
-        <v>28.75322891016846</v>
+        <v>28.75322891016845</v>
       </c>
     </row>
     <row r="6152" spans="1:2">
@@ -49591,7 +49591,7 @@
         <v>6156</v>
       </c>
       <c r="B6156">
-        <v>312.4283807649272</v>
+        <v>312.4283807649271</v>
       </c>
     </row>
     <row r="6157" spans="1:2">
@@ -49671,7 +49671,7 @@
         <v>6166</v>
       </c>
       <c r="B6166">
-        <v>383.539137585716</v>
+        <v>383.5391375857159</v>
       </c>
     </row>
     <row r="6167" spans="1:2">
@@ -49743,7 +49743,7 @@
         <v>6175</v>
       </c>
       <c r="B6175">
-        <v>43.1509005193805</v>
+        <v>43.15090051938049</v>
       </c>
     </row>
     <row r="6176" spans="1:2">
@@ -49823,7 +49823,7 @@
         <v>6185</v>
       </c>
       <c r="B6185">
-        <v>390.6168031693875</v>
+        <v>390.6168031693874</v>
       </c>
     </row>
     <row r="6186" spans="1:2">
@@ -49943,7 +49943,7 @@
         <v>6200</v>
       </c>
       <c r="B6200">
-        <v>60.09304419335421</v>
+        <v>60.0930441933542</v>
       </c>
     </row>
     <row r="6201" spans="1:2">
@@ -49951,7 +49951,7 @@
         <v>6201</v>
       </c>
       <c r="B6201">
-        <v>119.5079220032461</v>
+        <v>119.507922003246</v>
       </c>
     </row>
     <row r="6202" spans="1:2">
@@ -50167,7 +50167,7 @@
         <v>6228</v>
       </c>
       <c r="B6228">
-        <v>267.6518151940922</v>
+        <v>267.6518151940921</v>
       </c>
     </row>
     <row r="6229" spans="1:2">
@@ -50303,7 +50303,7 @@
         <v>6245</v>
       </c>
       <c r="B6245">
-        <v>260.7602497199707</v>
+        <v>260.7602497199706</v>
       </c>
     </row>
     <row r="6246" spans="1:2">
@@ -50383,7 +50383,7 @@
         <v>6255</v>
       </c>
       <c r="B6255">
-        <v>393.2661653588861</v>
+        <v>393.266165358886</v>
       </c>
     </row>
     <row r="6256" spans="1:2">
@@ -50391,7 +50391,7 @@
         <v>6256</v>
       </c>
       <c r="B6256">
-        <v>418.2797785086319</v>
+        <v>418.2797785086318</v>
       </c>
     </row>
     <row r="6257" spans="1:2">
@@ -50399,7 +50399,7 @@
         <v>6257</v>
       </c>
       <c r="B6257">
-        <v>390.5728425135883</v>
+        <v>390.5728425135882</v>
       </c>
     </row>
     <row r="6258" spans="1:2">
@@ -50567,7 +50567,7 @@
         <v>6278</v>
       </c>
       <c r="B6278">
-        <v>347.6086282458351</v>
+        <v>347.608628245835</v>
       </c>
     </row>
     <row r="6279" spans="1:2">
@@ -50695,7 +50695,7 @@
         <v>6294</v>
       </c>
       <c r="B6294">
-        <v>0.881024295002963</v>
+        <v>0.8810242950029629</v>
       </c>
     </row>
     <row r="6295" spans="1:2">
@@ -50743,7 +50743,7 @@
         <v>6300</v>
       </c>
       <c r="B6300">
-        <v>40.18062554254777</v>
+        <v>40.18062554254776</v>
       </c>
     </row>
     <row r="6301" spans="1:2">
@@ -50887,7 +50887,7 @@
         <v>6318</v>
       </c>
       <c r="B6318">
-        <v>0.4699423412038538</v>
+        <v>0.4699423412038537</v>
       </c>
     </row>
     <row r="6319" spans="1:2">
@@ -50983,7 +50983,7 @@
         <v>6330</v>
       </c>
       <c r="B6330">
-        <v>343.9540323937281</v>
+        <v>343.954032393728</v>
       </c>
     </row>
     <row r="6331" spans="1:2">
@@ -51031,7 +51031,7 @@
         <v>6336</v>
       </c>
       <c r="B6336">
-        <v>78.91406629618581</v>
+        <v>78.91406629618579</v>
       </c>
     </row>
     <row r="6337" spans="1:2">
@@ -51479,7 +51479,7 @@
         <v>6392</v>
       </c>
       <c r="B6392">
-        <v>2.244865541938173</v>
+        <v>2.244865541938172</v>
       </c>
     </row>
     <row r="6393" spans="1:2">
@@ -51719,7 +51719,7 @@
         <v>6422</v>
       </c>
       <c r="B6422">
-        <v>138.7703090903017</v>
+        <v>138.7703090903016</v>
       </c>
     </row>
     <row r="6423" spans="1:2">
@@ -51823,7 +51823,7 @@
         <v>6435</v>
       </c>
       <c r="B6435">
-        <v>61.26239763761298</v>
+        <v>61.26239763761297</v>
       </c>
     </row>
     <row r="6436" spans="1:2">
@@ -51831,7 +51831,7 @@
         <v>6436</v>
       </c>
       <c r="B6436">
-        <v>39.58686361821988</v>
+        <v>39.58686361821987</v>
       </c>
     </row>
     <row r="6437" spans="1:2">
@@ -52031,7 +52031,7 @@
         <v>6461</v>
       </c>
       <c r="B6461">
-        <v>71.04950497370861</v>
+        <v>71.04950497370859</v>
       </c>
     </row>
     <row r="6462" spans="1:2">
@@ -52063,7 +52063,7 @@
         <v>6465</v>
       </c>
       <c r="B6465">
-        <v>54.89542932269525</v>
+        <v>54.89542932269524</v>
       </c>
     </row>
     <row r="6466" spans="1:2">
@@ -52119,7 +52119,7 @@
         <v>6472</v>
       </c>
       <c r="B6472">
-        <v>345.9938068228111</v>
+        <v>345.993806822811</v>
       </c>
     </row>
     <row r="6473" spans="1:2">
@@ -52135,7 +52135,7 @@
         <v>6474</v>
       </c>
       <c r="B6474">
-        <v>432.9479839936322</v>
+        <v>432.9479839936321</v>
       </c>
     </row>
     <row r="6475" spans="1:2">
@@ -52151,7 +52151,7 @@
         <v>6476</v>
       </c>
       <c r="B6476">
-        <v>320.7721132356157</v>
+        <v>320.7721132356156</v>
       </c>
     </row>
     <row r="6477" spans="1:2">
@@ -52367,7 +52367,7 @@
         <v>6503</v>
       </c>
       <c r="B6503">
-        <v>205.284539740726</v>
+        <v>205.2845397407259</v>
       </c>
     </row>
     <row r="6504" spans="1:2">
@@ -52375,7 +52375,7 @@
         <v>6504</v>
       </c>
       <c r="B6504">
-        <v>171.9055068634307</v>
+        <v>171.9055068634306</v>
       </c>
     </row>
     <row r="6505" spans="1:2">
@@ -52455,7 +52455,7 @@
         <v>6514</v>
       </c>
       <c r="B6514">
-        <v>148.1693903712097</v>
+        <v>148.1693903712096</v>
       </c>
     </row>
     <row r="6515" spans="1:2">
@@ -52471,7 +52471,7 @@
         <v>6516</v>
       </c>
       <c r="B6516">
-        <v>264.7131918894349</v>
+        <v>264.7131918894348</v>
       </c>
     </row>
     <row r="6517" spans="1:2">
@@ -52487,7 +52487,7 @@
         <v>6518</v>
       </c>
       <c r="B6518">
-        <v>338.1570872490067</v>
+        <v>338.1570872490066</v>
       </c>
     </row>
     <row r="6519" spans="1:2">
@@ -52511,7 +52511,7 @@
         <v>6521</v>
       </c>
       <c r="B6521">
-        <v>326.6950789269615</v>
+        <v>326.6950789269614</v>
       </c>
     </row>
     <row r="6522" spans="1:2">
@@ -52527,7 +52527,7 @@
         <v>6523</v>
       </c>
       <c r="B6523">
-        <v>395.5140202254186</v>
+        <v>395.5140202254185</v>
       </c>
     </row>
     <row r="6524" spans="1:2">
@@ -52559,7 +52559,7 @@
         <v>6527</v>
       </c>
       <c r="B6527">
-        <v>269.1130673928577</v>
+        <v>269.1130673928576</v>
       </c>
     </row>
     <row r="6528" spans="1:2">
@@ -52775,7 +52775,7 @@
         <v>6554</v>
       </c>
       <c r="B6554">
-        <v>71.31913032927704</v>
+        <v>71.31913032927703</v>
       </c>
     </row>
     <row r="6555" spans="1:2">
@@ -53023,7 +53023,7 @@
         <v>6585</v>
       </c>
       <c r="B6585">
-        <v>7.872093248170798</v>
+        <v>7.872093248170797</v>
       </c>
     </row>
     <row r="6586" spans="1:2">
@@ -53127,7 +53127,7 @@
         <v>6598</v>
       </c>
       <c r="B6598">
-        <v>80.40638402504938</v>
+        <v>80.40638402504936</v>
       </c>
     </row>
     <row r="6599" spans="1:2">
@@ -53215,7 +53215,7 @@
         <v>6609</v>
       </c>
       <c r="B6609">
-        <v>2.243804624778219</v>
+        <v>2.243804624778218</v>
       </c>
     </row>
     <row r="6610" spans="1:2">
@@ -53527,7 +53527,7 @@
         <v>6648</v>
       </c>
       <c r="B6648">
-        <v>55.2195658914547</v>
+        <v>55.21956589145469</v>
       </c>
     </row>
     <row r="6649" spans="1:2">
@@ -53567,7 +53567,7 @@
         <v>6653</v>
       </c>
       <c r="B6653">
-        <v>5.999515846644132</v>
+        <v>5.999515846644131</v>
       </c>
     </row>
     <row r="6654" spans="1:2">
@@ -53631,7 +53631,7 @@
         <v>6661</v>
       </c>
       <c r="B6661">
-        <v>186.098644194761</v>
+        <v>186.0986441947609</v>
       </c>
     </row>
     <row r="6662" spans="1:2">
@@ -53647,7 +53647,7 @@
         <v>6663</v>
       </c>
       <c r="B6663">
-        <v>247.4677196904467</v>
+        <v>247.4677196904466</v>
       </c>
     </row>
     <row r="6664" spans="1:2">
@@ -53703,7 +53703,7 @@
         <v>6670</v>
       </c>
       <c r="B6670">
-        <v>160.6331155033994</v>
+        <v>160.6331155033993</v>
       </c>
     </row>
     <row r="6671" spans="1:2">
@@ -53727,7 +53727,7 @@
         <v>6673</v>
       </c>
       <c r="B6673">
-        <v>63.60637980482642</v>
+        <v>63.60637980482641</v>
       </c>
     </row>
     <row r="6674" spans="1:2">
@@ -53775,7 +53775,7 @@
         <v>6679</v>
       </c>
       <c r="B6679">
-        <v>4.998033493330583</v>
+        <v>4.998033493330582</v>
       </c>
     </row>
     <row r="6680" spans="1:2">
@@ -53791,7 +53791,7 @@
         <v>6681</v>
       </c>
       <c r="B6681">
-        <v>6.419750408980635</v>
+        <v>6.419750408980634</v>
       </c>
     </row>
     <row r="6682" spans="1:2">
@@ -53911,7 +53911,7 @@
         <v>6696</v>
       </c>
       <c r="B6696">
-        <v>88.75246106404717</v>
+        <v>88.75246106404715</v>
       </c>
     </row>
     <row r="6697" spans="1:2">
@@ -53975,7 +53975,7 @@
         <v>6704</v>
       </c>
       <c r="B6704">
-        <v>9.054048747092004</v>
+        <v>9.054048747092002</v>
       </c>
     </row>
     <row r="6705" spans="1:2">
@@ -54039,7 +54039,7 @@
         <v>6712</v>
       </c>
       <c r="B6712">
-        <v>330.6251615554101</v>
+        <v>330.62516155541</v>
       </c>
     </row>
     <row r="6713" spans="1:2">
@@ -54127,7 +54127,7 @@
         <v>6723</v>
       </c>
       <c r="B6723">
-        <v>107.1678728493715</v>
+        <v>107.1678728493714</v>
       </c>
     </row>
     <row r="6724" spans="1:2">
@@ -54143,7 +54143,7 @@
         <v>6725</v>
       </c>
       <c r="B6725">
-        <v>80.61036146795767</v>
+        <v>80.61036146795766</v>
       </c>
     </row>
     <row r="6726" spans="1:2">
@@ -54239,7 +54239,7 @@
         <v>6737</v>
       </c>
       <c r="B6737">
-        <v>300.9751645740418</v>
+        <v>300.9751645740417</v>
       </c>
     </row>
     <row r="6738" spans="1:2">
@@ -54279,7 +54279,7 @@
         <v>6742</v>
       </c>
       <c r="B6742">
-        <v>248.6104036701873</v>
+        <v>248.6104036701872</v>
       </c>
     </row>
     <row r="6743" spans="1:2">
@@ -54607,7 +54607,7 @@
         <v>6783</v>
       </c>
       <c r="B6783">
-        <v>141.1538558477344</v>
+        <v>141.1538558477343</v>
       </c>
     </row>
     <row r="6784" spans="1:2">
@@ -54655,7 +54655,7 @@
         <v>6789</v>
       </c>
       <c r="B6789">
-        <v>106.5864199086674</v>
+        <v>106.5864199086673</v>
       </c>
     </row>
     <row r="6790" spans="1:2">
@@ -54791,7 +54791,7 @@
         <v>6806</v>
       </c>
       <c r="B6806">
-        <v>68.17506422651813</v>
+        <v>68.17506422651812</v>
       </c>
     </row>
     <row r="6807" spans="1:2">
@@ -54839,7 +54839,7 @@
         <v>6812</v>
       </c>
       <c r="B6812">
-        <v>81.55610170971784</v>
+        <v>81.55610170971782</v>
       </c>
     </row>
     <row r="6813" spans="1:2">
@@ -54847,7 +54847,7 @@
         <v>6813</v>
       </c>
       <c r="B6813">
-        <v>55.41797498462843</v>
+        <v>55.41797498462842</v>
       </c>
     </row>
     <row r="6814" spans="1:2">
@@ -55039,7 +55039,7 @@
         <v>6837</v>
       </c>
       <c r="B6837">
-        <v>41.40068027649495</v>
+        <v>41.40068027649494</v>
       </c>
     </row>
     <row r="6838" spans="1:2">
@@ -55207,7 +55207,7 @@
         <v>6858</v>
       </c>
       <c r="B6858">
-        <v>201.4502913419196</v>
+        <v>201.4502913419195</v>
       </c>
     </row>
     <row r="6859" spans="1:2">
@@ -55215,7 +55215,7 @@
         <v>6859</v>
       </c>
       <c r="B6859">
-        <v>141.4366694000426</v>
+        <v>141.4366694000425</v>
       </c>
     </row>
     <row r="6860" spans="1:2">
@@ -55231,7 +55231,7 @@
         <v>6861</v>
       </c>
       <c r="B6861">
-        <v>64.93955995969688</v>
+        <v>64.93955995969687</v>
       </c>
     </row>
     <row r="6862" spans="1:2">
@@ -55407,7 +55407,7 @@
         <v>6883</v>
       </c>
       <c r="B6883">
-        <v>70.92963891889612</v>
+        <v>70.9296389188961</v>
       </c>
     </row>
     <row r="6884" spans="1:2">
@@ -55527,7 +55527,7 @@
         <v>6898</v>
       </c>
       <c r="B6898">
-        <v>7.441601199481148</v>
+        <v>7.441601199481147</v>
       </c>
     </row>
     <row r="6899" spans="1:2">
@@ -55735,7 +55735,7 @@
         <v>6924</v>
       </c>
       <c r="B6924">
-        <v>55.3719628315586</v>
+        <v>55.37196283155859</v>
       </c>
     </row>
     <row r="6925" spans="1:2">
@@ -55831,7 +55831,7 @@
         <v>6936</v>
       </c>
       <c r="B6936">
-        <v>7.513550139472508</v>
+        <v>7.513550139472507</v>
       </c>
     </row>
     <row r="6937" spans="1:2">
@@ -55927,7 +55927,7 @@
         <v>6948</v>
       </c>
       <c r="B6948">
-        <v>62.81626028459543</v>
+        <v>62.81626028459542</v>
       </c>
     </row>
     <row r="6949" spans="1:2">
@@ -55935,7 +55935,7 @@
         <v>6949</v>
       </c>
       <c r="B6949">
-        <v>85.70628068820115</v>
+        <v>85.70628068820113</v>
       </c>
     </row>
     <row r="6950" spans="1:2">
@@ -56095,7 +56095,7 @@
         <v>6969</v>
       </c>
       <c r="B6969">
-        <v>7.417041846441327</v>
+        <v>7.417041846441326</v>
       </c>
     </row>
     <row r="6970" spans="1:2">
@@ -56119,7 +56119,7 @@
         <v>6972</v>
       </c>
       <c r="B6972">
-        <v>104.3066202989208</v>
+        <v>104.3066202989207</v>
       </c>
     </row>
     <row r="6973" spans="1:2">
@@ -56287,7 +56287,7 @@
         <v>6993</v>
       </c>
       <c r="B6993">
-        <v>22.49865333857736</v>
+        <v>22.49865333857735</v>
       </c>
     </row>
     <row r="6994" spans="1:2">
@@ -56343,7 +56343,7 @@
         <v>7000</v>
       </c>
       <c r="B7000">
-        <v>264.3157875610101</v>
+        <v>264.31578756101</v>
       </c>
     </row>
     <row r="7001" spans="1:2">
@@ -56487,7 +56487,7 @@
         <v>7018</v>
       </c>
       <c r="B7018">
-        <v>86.98201891949398</v>
+        <v>86.98201891949397</v>
       </c>
     </row>
     <row r="7019" spans="1:2">
@@ -56607,7 +56607,7 @@
         <v>7033</v>
       </c>
       <c r="B7033">
-        <v>96.51503366507022</v>
+        <v>96.51503366507021</v>
       </c>
     </row>
     <row r="7034" spans="1:2">
@@ -56671,7 +56671,7 @@
         <v>7041</v>
       </c>
       <c r="B7041">
-        <v>37.68102265380515</v>
+        <v>37.68102265380514</v>
       </c>
     </row>
     <row r="7042" spans="1:2">
@@ -56823,7 +56823,7 @@
         <v>7060</v>
       </c>
       <c r="B7060">
-        <v>27.02273234818481</v>
+        <v>27.0227323481848</v>
       </c>
     </row>
     <row r="7061" spans="1:2">
@@ -56983,7 +56983,7 @@
         <v>7080</v>
       </c>
       <c r="B7080">
-        <v>123.1798090466341</v>
+        <v>123.179809046634</v>
       </c>
     </row>
     <row r="7081" spans="1:2">
@@ -56999,7 +56999,7 @@
         <v>7082</v>
       </c>
       <c r="B7082">
-        <v>76.62107848969944</v>
+        <v>76.62107848969943</v>
       </c>
     </row>
     <row r="7083" spans="1:2">
@@ -57047,7 +57047,7 @@
         <v>7088</v>
       </c>
       <c r="B7088">
-        <v>12.0578510507476</v>
+        <v>12.05785105074759</v>
       </c>
     </row>
     <row r="7089" spans="1:2">
@@ -57111,7 +57111,7 @@
         <v>7096</v>
       </c>
       <c r="B7096">
-        <v>243.8720311171107</v>
+        <v>243.8720311171106</v>
       </c>
     </row>
     <row r="7097" spans="1:2">
@@ -57135,7 +57135,7 @@
         <v>7099</v>
       </c>
       <c r="B7099">
-        <v>325.2590308375209</v>
+        <v>325.2590308375208</v>
       </c>
     </row>
     <row r="7100" spans="1:2">
@@ -57191,7 +57191,7 @@
         <v>7106</v>
       </c>
       <c r="B7106">
-        <v>123.3852518447357</v>
+        <v>123.3852518447356</v>
       </c>
     </row>
     <row r="7107" spans="1:2">
@@ -57215,7 +57215,7 @@
         <v>7109</v>
       </c>
       <c r="B7109">
-        <v>88.66366053933278</v>
+        <v>88.66366053933277</v>
       </c>
     </row>
     <row r="7110" spans="1:2">
@@ -57319,7 +57319,7 @@
         <v>7122</v>
       </c>
       <c r="B7122">
-        <v>398.1487288629841</v>
+        <v>398.148728862984</v>
       </c>
     </row>
     <row r="7123" spans="1:2">
@@ -57471,7 +57471,7 @@
         <v>7141</v>
       </c>
       <c r="B7141">
-        <v>194.6607145892522</v>
+        <v>194.6607145892521</v>
       </c>
     </row>
     <row r="7142" spans="1:2">
@@ -57511,7 +57511,7 @@
         <v>7146</v>
       </c>
       <c r="B7146">
-        <v>322.3869346586397</v>
+        <v>322.3869346586396</v>
       </c>
     </row>
     <row r="7147" spans="1:2">
@@ -57559,7 +57559,7 @@
         <v>7152</v>
       </c>
       <c r="B7152">
-        <v>30.8987726771043</v>
+        <v>30.89877267710429</v>
       </c>
     </row>
     <row r="7153" spans="1:2">
@@ -57831,7 +57831,7 @@
         <v>7186</v>
       </c>
       <c r="B7186">
-        <v>3.009458574701757</v>
+        <v>3.009458574701756</v>
       </c>
     </row>
     <row r="7187" spans="1:2">
@@ -57911,7 +57911,7 @@
         <v>7196</v>
       </c>
       <c r="B7196">
-        <v>122.3055781383073</v>
+        <v>122.3055781383072</v>
       </c>
     </row>
     <row r="7197" spans="1:2">
@@ -57927,7 +57927,7 @@
         <v>7198</v>
       </c>
       <c r="B7198">
-        <v>74.04000185220897</v>
+        <v>74.04000185220896</v>
       </c>
     </row>
     <row r="7199" spans="1:2">
@@ -58127,7 +58127,7 @@
         <v>7223</v>
       </c>
       <c r="B7223">
-        <v>30.23877669803895</v>
+        <v>30.23877669803894</v>
       </c>
     </row>
     <row r="7224" spans="1:2">
@@ -58247,7 +58247,7 @@
         <v>7238</v>
       </c>
       <c r="B7238">
-        <v>83.97364470763527</v>
+        <v>83.97364470763526</v>
       </c>
     </row>
     <row r="7239" spans="1:2">
@@ -58431,7 +58431,7 @@
         <v>7261</v>
       </c>
       <c r="B7261">
-        <v>38.15257395501126</v>
+        <v>38.15257395501125</v>
       </c>
     </row>
     <row r="7262" spans="1:2">
@@ -58447,7 +58447,7 @@
         <v>7263</v>
       </c>
       <c r="B7263">
-        <v>59.20386666205569</v>
+        <v>59.20386666205568</v>
       </c>
     </row>
     <row r="7264" spans="1:2">
@@ -58663,7 +58663,7 @@
         <v>7290</v>
       </c>
       <c r="B7290">
-        <v>138.3729047618769</v>
+        <v>138.3729047618768</v>
       </c>
     </row>
     <row r="7291" spans="1:2">
@@ -58687,7 +58687,7 @@
         <v>7293</v>
       </c>
       <c r="B7293">
-        <v>57.81031387322099</v>
+        <v>57.81031387322098</v>
       </c>
     </row>
     <row r="7294" spans="1:2">
@@ -58855,7 +58855,7 @@
         <v>7314</v>
       </c>
       <c r="B7314">
-        <v>79.38766909466254</v>
+        <v>79.38766909466253</v>
       </c>
     </row>
     <row r="7315" spans="1:2">
@@ -58895,7 +58895,7 @@
         <v>7319</v>
       </c>
       <c r="B7319">
-        <v>0.4639842069878687</v>
+        <v>0.4639842069878686</v>
       </c>
     </row>
     <row r="7320" spans="1:2">
@@ -58991,7 +58991,7 @@
         <v>7331</v>
       </c>
       <c r="B7331">
-        <v>6.242852730044647</v>
+        <v>6.242852730044646</v>
       </c>
     </row>
     <row r="7332" spans="1:2">
@@ -59023,7 +59023,7 @@
         <v>7335</v>
       </c>
       <c r="B7335">
-        <v>59.62178596318677</v>
+        <v>59.62178596318676</v>
       </c>
     </row>
     <row r="7336" spans="1:2">
@@ -59191,7 +59191,7 @@
         <v>7356</v>
       </c>
       <c r="B7356">
-        <v>26.75398620573236</v>
+        <v>26.75398620573235</v>
       </c>
     </row>
     <row r="7357" spans="1:2">
@@ -59255,7 +59255,7 @@
         <v>7364</v>
       </c>
       <c r="B7364">
-        <v>57.29538805829301</v>
+        <v>57.295388058293</v>
       </c>
     </row>
     <row r="7365" spans="1:2">
@@ -59431,7 +59431,7 @@
         <v>7386</v>
       </c>
       <c r="B7386">
-        <v>15.66139392791977</v>
+        <v>15.66139392791976</v>
       </c>
     </row>
     <row r="7387" spans="1:2">
@@ -59655,7 +59655,7 @@
         <v>7414</v>
       </c>
       <c r="B7414">
-        <v>91.05599942792534</v>
+        <v>91.05599942792531</v>
       </c>
     </row>
     <row r="7415" spans="1:2">
@@ -59967,7 +59967,7 @@
         <v>7453</v>
       </c>
       <c r="B7453">
-        <v>84.04456789899132</v>
+        <v>84.0445678989913</v>
       </c>
     </row>
     <row r="7454" spans="1:2">
@@ -59999,7 +59999,7 @@
         <v>7457</v>
       </c>
       <c r="B7457">
-        <v>106.9070396249629</v>
+        <v>106.9070396249628</v>
       </c>
     </row>
     <row r="7458" spans="1:2">
@@ -60151,7 +60151,7 @@
         <v>7476</v>
       </c>
       <c r="B7476">
-        <v>0.527448740409983</v>
+        <v>0.5274487404099829</v>
       </c>
     </row>
     <row r="7477" spans="1:2">
@@ -60191,7 +60191,7 @@
         <v>7481</v>
       </c>
       <c r="B7481">
-        <v>5.90711054815421</v>
+        <v>5.907110548154209</v>
       </c>
     </row>
     <row r="7482" spans="1:2">
@@ -60223,7 +60223,7 @@
         <v>7485</v>
       </c>
       <c r="B7485">
-        <v>13.37526398373808</v>
+        <v>13.37526398373807</v>
       </c>
     </row>
     <row r="7486" spans="1:2">
@@ -60559,7 +60559,7 @@
         <v>7527</v>
       </c>
       <c r="B7527">
-        <v>7.679399040250964</v>
+        <v>7.679399040250963</v>
       </c>
     </row>
     <row r="7528" spans="1:2">
@@ -60727,7 +60727,7 @@
         <v>7548</v>
       </c>
       <c r="B7548">
-        <v>24.7397382641168</v>
+        <v>24.73973826411679</v>
       </c>
     </row>
     <row r="7549" spans="1:2">
@@ -60767,7 +60767,7 @@
         <v>7553</v>
       </c>
       <c r="B7553">
-        <v>13.92069849379071</v>
+        <v>13.9206984937907</v>
       </c>
     </row>
     <row r="7554" spans="1:2">
@@ -61111,7 +61111,7 @@
         <v>7596</v>
       </c>
       <c r="B7596">
-        <v>0.5554399553125281</v>
+        <v>0.555439955312528</v>
       </c>
     </row>
     <row r="7597" spans="1:2">
@@ -61359,7 +61359,7 @@
         <v>7627</v>
       </c>
       <c r="B7627">
-        <v>0.3004798745187041</v>
+        <v>0.300479874518704</v>
       </c>
     </row>
     <row r="7628" spans="1:2">
@@ -61567,7 +61567,7 @@
         <v>7653</v>
       </c>
       <c r="B7653">
-        <v>11.95011813693569</v>
+        <v>11.95011813693568</v>
       </c>
     </row>
     <row r="7654" spans="1:2">
@@ -61583,7 +61583,7 @@
         <v>7655</v>
       </c>
       <c r="B7655">
-        <v>2.219048914142495</v>
+        <v>2.219048914142494</v>
       </c>
     </row>
     <row r="7656" spans="1:2">
@@ -62111,7 +62111,7 @@
         <v>7721</v>
       </c>
       <c r="B7721">
-        <v>28.40104544300912</v>
+        <v>28.40104544300911</v>
       </c>
     </row>
     <row r="7722" spans="1:2">
@@ -62271,7 +62271,7 @@
         <v>7741</v>
       </c>
       <c r="B7741">
-        <v>7.168195227513979</v>
+        <v>7.168195227513978</v>
       </c>
     </row>
     <row r="7742" spans="1:2">
@@ -62327,7 +62327,7 @@
         <v>7748</v>
       </c>
       <c r="B7748">
-        <v>68.30811847807038</v>
+        <v>68.30811847807037</v>
       </c>
     </row>
     <row r="7749" spans="1:2">
@@ -62671,7 +62671,7 @@
         <v>7791</v>
       </c>
       <c r="B7791">
-        <v>38.27712914644233</v>
+        <v>38.27712914644232</v>
       </c>
     </row>
     <row r="7792" spans="1:2">
@@ -62703,7 +62703,7 @@
         <v>7795</v>
       </c>
       <c r="B7795">
-        <v>85.74936213088436</v>
+        <v>85.74936213088435</v>
       </c>
     </row>
     <row r="7796" spans="1:2">
@@ -62935,7 +62935,7 @@
         <v>7824</v>
       </c>
       <c r="B7824">
-        <v>69.96865898312556</v>
+        <v>69.96865898312555</v>
       </c>
     </row>
     <row r="7825" spans="1:2">
@@ -62951,7 +62951,7 @@
         <v>7826</v>
       </c>
       <c r="B7826">
-        <v>50.31765969880504</v>
+        <v>50.31765969880503</v>
       </c>
     </row>
     <row r="7827" spans="1:2">
@@ -62959,7 +62959,7 @@
         <v>7827</v>
       </c>
       <c r="B7827">
-        <v>33.10295995887628</v>
+        <v>33.10295995887627</v>
       </c>
     </row>
     <row r="7828" spans="1:2">
@@ -63015,7 +63015,7 @@
         <v>7834</v>
       </c>
       <c r="B7834">
-        <v>42.61839044213284</v>
+        <v>42.61839044213283</v>
       </c>
     </row>
     <row r="7835" spans="1:2">
@@ -63055,7 +63055,7 @@
         <v>7839</v>
       </c>
       <c r="B7839">
-        <v>163.1646631353561</v>
+        <v>163.164663135356</v>
       </c>
     </row>
     <row r="7840" spans="1:2">
@@ -63151,7 +63151,7 @@
         <v>7851</v>
       </c>
       <c r="B7851">
-        <v>83.566275963896</v>
+        <v>83.56627596389599</v>
       </c>
     </row>
     <row r="7852" spans="1:2">
@@ -63167,7 +63167,7 @@
         <v>7853</v>
       </c>
       <c r="B7853">
-        <v>61.9604928517043</v>
+        <v>61.96049285170429</v>
       </c>
     </row>
     <row r="7854" spans="1:2">
@@ -63215,7 +63215,7 @@
         <v>7859</v>
       </c>
       <c r="B7859">
-        <v>115.8292943259689</v>
+        <v>115.8292943259688</v>
       </c>
     </row>
     <row r="7860" spans="1:2">
@@ -63359,7 +63359,7 @@
         <v>7877</v>
       </c>
       <c r="B7877">
-        <v>60.14374548304262</v>
+        <v>60.14374548304261</v>
       </c>
     </row>
     <row r="7878" spans="1:2">
@@ -63375,7 +63375,7 @@
         <v>7879</v>
       </c>
       <c r="B7879">
-        <v>48.68466787138402</v>
+        <v>48.68466787138401</v>
       </c>
     </row>
     <row r="7880" spans="1:2">
@@ -63455,7 +63455,7 @@
         <v>7889</v>
       </c>
       <c r="B7889">
-        <v>61.05109341873815</v>
+        <v>61.05109341873814</v>
       </c>
     </row>
     <row r="7890" spans="1:2">
@@ -63495,7 +63495,7 @@
         <v>7894</v>
       </c>
       <c r="B7894">
-        <v>82.2152184756672</v>
+        <v>82.21521847566719</v>
       </c>
     </row>
     <row r="7895" spans="1:2">
@@ -63695,7 +63695,7 @@
         <v>7919</v>
       </c>
       <c r="B7919">
-        <v>7.690652968135558</v>
+        <v>7.690652968135557</v>
       </c>
     </row>
     <row r="7920" spans="1:2">
@@ -63839,7 +63839,7 @@
         <v>7937</v>
       </c>
       <c r="B7937">
-        <v>36.79448276185458</v>
+        <v>36.79448276185457</v>
       </c>
     </row>
     <row r="7938" spans="1:2">
@@ -63879,7 +63879,7 @@
         <v>7942</v>
       </c>
       <c r="B7942">
-        <v>89.88899055197587</v>
+        <v>89.88899055197585</v>
       </c>
     </row>
     <row r="7943" spans="1:2">
@@ -64007,7 +64007,7 @@
         <v>7958</v>
       </c>
       <c r="B7958">
-        <v>144.4907626939325</v>
+        <v>144.4907626939324</v>
       </c>
     </row>
     <row r="7959" spans="1:2">
@@ -64015,7 +64015,7 @@
         <v>7959</v>
       </c>
       <c r="B7959">
-        <v>152.2202182675868</v>
+        <v>152.2202182675867</v>
       </c>
     </row>
     <row r="7960" spans="1:2">
@@ -64023,7 +64023,7 @@
         <v>7960</v>
       </c>
       <c r="B7960">
-        <v>124.3110632558669</v>
+        <v>124.3110632558668</v>
       </c>
     </row>
     <row r="7961" spans="1:2">
@@ -64047,7 +64047,7 @@
         <v>7963</v>
       </c>
       <c r="B7963">
-        <v>238.8675500609295</v>
+        <v>238.8675500609294</v>
       </c>
     </row>
     <row r="7964" spans="1:2">
@@ -64127,7 +64127,7 @@
         <v>7973</v>
       </c>
       <c r="B7973">
-        <v>3.532707607127723</v>
+        <v>3.532707607127722</v>
       </c>
     </row>
     <row r="7974" spans="1:2">
@@ -64167,7 +64167,7 @@
         <v>7978</v>
       </c>
       <c r="B7978">
-        <v>9.718177027802479</v>
+        <v>9.718177027802476</v>
       </c>
     </row>
     <row r="7979" spans="1:2">
@@ -64183,7 +64183,7 @@
         <v>7980</v>
       </c>
       <c r="B7980">
-        <v>76.61316557165559</v>
+        <v>76.61316557165557</v>
       </c>
     </row>
     <row r="7981" spans="1:2">
@@ -64207,7 +64207,7 @@
         <v>7983</v>
       </c>
       <c r="B7983">
-        <v>112.5501224743871</v>
+        <v>112.550122474387</v>
       </c>
     </row>
     <row r="7984" spans="1:2">
@@ -64575,7 +64575,7 @@
         <v>8029</v>
       </c>
       <c r="B8029">
-        <v>21.24143719692792</v>
+        <v>21.24143719692791</v>
       </c>
     </row>
     <row r="8030" spans="1:2">
@@ -64959,7 +64959,7 @@
         <v>8077</v>
       </c>
       <c r="B8077">
-        <v>36.18079200689773</v>
+        <v>36.18079200689772</v>
       </c>
     </row>
     <row r="8078" spans="1:2">
@@ -65159,7 +65159,7 @@
         <v>8102</v>
       </c>
       <c r="B8102">
-        <v>8.922928764394918</v>
+        <v>8.922928764394916</v>
       </c>
     </row>
     <row r="8103" spans="1:2">
@@ -65359,7 +65359,7 @@
         <v>8127</v>
       </c>
       <c r="B8127">
-        <v>20.55928504733977</v>
+        <v>20.55928504733976</v>
       </c>
     </row>
     <row r="8128" spans="1:2">
@@ -65367,7 +65367,7 @@
         <v>8128</v>
       </c>
       <c r="B8128">
-        <v>11.6100091965692</v>
+        <v>11.61000919656919</v>
       </c>
     </row>
     <row r="8129" spans="1:2">
@@ -65407,7 +65407,7 @@
         <v>8133</v>
       </c>
       <c r="B8133">
-        <v>4.575044063230664</v>
+        <v>4.575044063230663</v>
       </c>
     </row>
     <row r="8134" spans="1:2">
@@ -65719,7 +65719,7 @@
         <v>8172</v>
       </c>
       <c r="B8172">
-        <v>0.4944694564294218</v>
+        <v>0.4944694564294217</v>
       </c>
     </row>
     <row r="8173" spans="1:2">
@@ -66311,7 +66311,7 @@
         <v>8246</v>
       </c>
       <c r="B8246">
-        <v>7.783703022910536</v>
+        <v>7.783703022910535</v>
       </c>
     </row>
     <row r="8247" spans="1:2">
@@ -67263,7 +67263,7 @@
         <v>8365</v>
       </c>
       <c r="B8365">
-        <v>27.57139063966272</v>
+        <v>27.57139063966271</v>
       </c>
     </row>
     <row r="8366" spans="1:2">
@@ -67279,7 +67279,7 @@
         <v>8367</v>
       </c>
       <c r="B8367">
-        <v>26.03865841456775</v>
+        <v>26.03865841456774</v>
       </c>
     </row>
     <row r="8368" spans="1:2">
@@ -67455,7 +67455,7 @@
         <v>8389</v>
       </c>
       <c r="B8389">
-        <v>7.864883700619728</v>
+        <v>7.864883700619727</v>
       </c>
     </row>
     <row r="8390" spans="1:2">
@@ -67655,7 +67655,7 @@
         <v>8414</v>
       </c>
       <c r="B8414">
-        <v>4.600541243594201</v>
+        <v>4.6005412435942</v>
       </c>
     </row>
     <row r="8415" spans="1:2">
@@ -67823,7 +67823,7 @@
         <v>8435</v>
       </c>
       <c r="B8435">
-        <v>3.16039015961235</v>
+        <v>3.160390159612349</v>
       </c>
     </row>
     <row r="8436" spans="1:2">
@@ -68231,7 +68231,7 @@
         <v>8486</v>
       </c>
       <c r="B8486">
-        <v>3.624438842228724</v>
+        <v>3.624438842228723</v>
       </c>
     </row>
     <row r="8487" spans="1:2">
@@ -69959,7 +69959,7 @@
         <v>8702</v>
       </c>
       <c r="B8702">
-        <v>2.943898583353214</v>
+        <v>2.943898583353213</v>
       </c>
     </row>
     <row r="8703" spans="1:2">
@@ -69983,7 +69983,7 @@
         <v>8705</v>
       </c>
       <c r="B8705">
-        <v>0.8794915334707641</v>
+        <v>0.879491533470764</v>
       </c>
     </row>
     <row r="8706" spans="1:2">
@@ -70143,7 +70143,7 @@
         <v>8725</v>
       </c>
       <c r="B8725">
-        <v>40.8453106582317</v>
+        <v>40.84531065823169</v>
       </c>
     </row>
     <row r="8726" spans="1:2">
@@ -70175,7 +70175,7 @@
         <v>8729</v>
       </c>
       <c r="B8729">
-        <v>41.28110729272112</v>
+        <v>41.28110729272111</v>
       </c>
     </row>
     <row r="8730" spans="1:2">
@@ -70207,7 +70207,7 @@
         <v>8733</v>
       </c>
       <c r="B8733">
-        <v>54.58477402171423</v>
+        <v>54.58477402171422</v>
       </c>
     </row>
     <row r="8734" spans="1:2">
@@ -70215,7 +70215,7 @@
         <v>8734</v>
       </c>
       <c r="B8734">
-        <v>27.18679351562743</v>
+        <v>27.18679351562742</v>
       </c>
     </row>
     <row r="8735" spans="1:2">
